--- a/Annotations/New/TheBlackCompanyFIXED.xlsx
+++ b/Annotations/New/TheBlackCompanyFIXED.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Dropbox\University\Workspace\Master\Excel Files\New\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17832"/>
   </bookViews>
   <sheets>
     <sheet name="blackcompany" sheetId="1" r:id="rId1"/>
@@ -1899,29 +1899,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P305"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="I290" sqref="I290"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="12.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="12.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="12.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>305</v>
       </c>
@@ -1971,10 +1971,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.40571498756567304</v>
+        <v>0.56093553496663673</v>
       </c>
       <c r="B2" s="2">
         <v>5</v>
@@ -1992,10 +1992,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86178923285987563</v>
+        <v>0.70946989028183183</v>
       </c>
       <c r="B3" s="2">
         <v>179</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44914943944116736</v>
+        <v>0.90026548488899483</v>
       </c>
       <c r="B4" s="2">
         <v>256</v>
@@ -2037,10 +2037,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64875617032852373</v>
+        <v>0.38084158963733838</v>
       </c>
       <c r="B5" s="2">
         <v>165</v>
@@ -2061,10 +2061,10 @@
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99629091255263169</v>
+        <v>0.96552911409912101</v>
       </c>
       <c r="B6" s="2">
         <v>194</v>
@@ -2088,10 +2088,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4278982857225313</v>
+        <v>0.31598517483709843</v>
       </c>
       <c r="B7" s="2">
         <v>192</v>
@@ -2112,10 +2112,10 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69362797026931722</v>
+        <v>0.57889359719162936</v>
       </c>
       <c r="B8" s="2">
         <v>229</v>
@@ -2133,10 +2133,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96404906446082061</v>
+        <v>0.66792176698480643</v>
       </c>
       <c r="B9" s="2">
         <v>175</v>
@@ -2157,10 +2157,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60723976851491424</v>
+        <v>0.10303421013759051</v>
       </c>
       <c r="B10" s="2">
         <v>23</v>
@@ -2178,10 +2178,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4746071340687736E-3</v>
+        <v>3.7758608021020601E-2</v>
       </c>
       <c r="B11" s="2">
         <v>87</v>
@@ -2202,10 +2202,10 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38436672572648412</v>
+        <v>0.19010283923617433</v>
       </c>
       <c r="B12" s="2">
         <v>190</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5589334925844599</v>
+        <v>0.34727620544993709</v>
       </c>
       <c r="B13" s="2">
         <v>234</v>
@@ -2247,10 +2247,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17387847308524162</v>
+        <v>0.35528314181023424</v>
       </c>
       <c r="B14" s="2">
         <v>136</v>
@@ -2277,10 +2277,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88484554490516498</v>
+        <v>0.93694248391029156</v>
       </c>
       <c r="B15" s="2">
         <v>77</v>
@@ -2304,10 +2304,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57172466346510264</v>
+        <v>0.51012591715741884</v>
       </c>
       <c r="B16" s="2">
         <v>286</v>
@@ -2325,10 +2325,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90056768862736192</v>
+        <v>0.43505840476094271</v>
       </c>
       <c r="B17" s="2">
         <v>244</v>
@@ -2346,10 +2346,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63279438307304081</v>
+        <v>0.5230528038100114</v>
       </c>
       <c r="B18" s="2">
         <v>49</v>
@@ -2373,10 +2373,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63319615055265044</v>
+        <v>0.56015335676774847</v>
       </c>
       <c r="B19" s="2">
         <v>196</v>
@@ -2400,10 +2400,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42686750632283321</v>
+        <v>0.43656590058683864</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
@@ -2424,10 +2424,10 @@
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58583584149981038</v>
+        <v>0.60852292151696263</v>
       </c>
       <c r="B21" s="2">
         <v>119</v>
@@ -2448,10 +2448,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60838332337045253</v>
+        <v>0.50689176097325728</v>
       </c>
       <c r="B22" s="2">
         <v>162</v>
@@ -2472,10 +2472,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27871227956343814</v>
+        <v>0.90619660858869877</v>
       </c>
       <c r="B23" s="2">
         <v>185</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9152320812544947E-2</v>
+        <v>0.22117884517009823</v>
       </c>
       <c r="B24" s="2">
         <v>181</v>
@@ -2520,10 +2520,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2039213265737332E-2</v>
+        <v>0.74700284031677255</v>
       </c>
       <c r="B25" s="2">
         <v>176</v>
@@ -2544,10 +2544,10 @@
         <v>332</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63753380170319007</v>
+        <v>0.34210401327015605</v>
       </c>
       <c r="B26" s="2">
         <v>237</v>
@@ -2568,10 +2568,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79015605307835046</v>
+        <v>0.6535732218880641</v>
       </c>
       <c r="B27" s="2">
         <v>134</v>
@@ -2589,10 +2589,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20698402561995533</v>
+        <v>0.68881647404126289</v>
       </c>
       <c r="B28" s="2">
         <v>300</v>
@@ -2610,10 +2610,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.619231390074373</v>
+        <v>0.72894331621803099</v>
       </c>
       <c r="B29" s="2">
         <v>122</v>
@@ -2634,10 +2634,10 @@
         <v>335</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13493665041660974</v>
+        <v>0.52951858120988138</v>
       </c>
       <c r="B30" s="2">
         <v>203</v>
@@ -2655,10 +2655,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55196009519559086</v>
+        <v>0.38379747059631897</v>
       </c>
       <c r="B31" s="2">
         <v>241</v>
@@ -2679,10 +2679,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8358271936867805E-2</v>
+        <v>0.10159453749671254</v>
       </c>
       <c r="B32" s="2">
         <v>142</v>
@@ -2703,10 +2703,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14101996429727637</v>
+        <v>0.73551133920656231</v>
       </c>
       <c r="B33" s="2">
         <v>183</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61583349766580253</v>
+        <v>0.96074902156919884</v>
       </c>
       <c r="B34" s="2">
         <v>48</v>
@@ -2748,10 +2748,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14135480318812632</v>
+        <v>0.75054190875445292</v>
       </c>
       <c r="B35" s="2">
         <v>107</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33789251859296765</v>
+        <v>0.61761317692798179</v>
       </c>
       <c r="B36" s="2">
         <v>163</v>
@@ -2790,10 +2790,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57046988309278268</v>
+        <v>6.966074285609869E-2</v>
       </c>
       <c r="B37" s="2">
         <v>303</v>
@@ -2814,10 +2814,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6388757388227315E-2</v>
+        <v>0.98798952985650734</v>
       </c>
       <c r="B38" s="2">
         <v>255</v>
@@ -2838,10 +2838,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44549132685048276</v>
+        <v>0.53029917233341151</v>
       </c>
       <c r="B39" s="2">
         <v>156</v>
@@ -2859,10 +2859,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97688650326905757</v>
+        <v>0.72207084886523809</v>
       </c>
       <c r="B40" s="2">
         <v>280</v>
@@ -2880,10 +2880,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29220167738604885</v>
+        <v>0.52969400645811948</v>
       </c>
       <c r="B41" s="2">
         <v>66</v>
@@ -2907,10 +2907,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53142847837102736</v>
+        <v>0.81941298196002199</v>
       </c>
       <c r="B42" s="2">
         <v>164</v>
@@ -2931,10 +2931,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54019133170256617</v>
+        <v>0.16379797300621135</v>
       </c>
       <c r="B43" s="2">
         <v>167</v>
@@ -2955,10 +2955,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13268338742967245</v>
+        <v>0.38201704660775049</v>
       </c>
       <c r="B44" s="2">
         <v>53</v>
@@ -2976,10 +2976,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66060905232270972</v>
+        <v>0.75268836859414889</v>
       </c>
       <c r="B45" s="2">
         <v>158</v>
@@ -3000,10 +3000,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91051681434534215</v>
+        <v>0.94669873178508435</v>
       </c>
       <c r="B46" s="2">
         <v>251</v>
@@ -3021,10 +3021,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47175977248112477</v>
+        <v>0.69679349126824974</v>
       </c>
       <c r="B47" s="2">
         <v>11</v>
@@ -3042,10 +3042,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8174289765615237E-2</v>
+        <v>4.763387520859752E-2</v>
       </c>
       <c r="B48" s="2">
         <v>171</v>
@@ -3066,10 +3066,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21668562205137698</v>
+        <v>0.49601361485420115</v>
       </c>
       <c r="B49" s="2">
         <v>152</v>
@@ -3090,10 +3090,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62530502875747662</v>
+        <v>0.4123864736369941</v>
       </c>
       <c r="B50" s="2">
         <v>290</v>
@@ -3111,10 +3111,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87426792710656354</v>
+        <v>0.64360528407700313</v>
       </c>
       <c r="B51" s="2">
         <v>129</v>
@@ -3135,10 +3135,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76935439255181604</v>
+        <v>0.58601228120294191</v>
       </c>
       <c r="B52" s="2">
         <v>243</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85456085528722903</v>
+        <v>0.636819190347931</v>
       </c>
       <c r="B53" s="2">
         <v>150</v>
@@ -3180,10 +3180,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39281604338898479</v>
+        <v>0.64844076343588752</v>
       </c>
       <c r="B54" s="2">
         <v>103</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52249348906548942</v>
+        <v>0.77436353470969654</v>
       </c>
       <c r="B55" s="2">
         <v>76</v>
@@ -3228,10 +3228,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5213961781478833</v>
+        <v>0.56681163939856749</v>
       </c>
       <c r="B56" s="2">
         <v>120</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83223865212633497</v>
+        <v>0.53483889883262481</v>
       </c>
       <c r="B57" s="2">
         <v>264</v>
@@ -3273,10 +3273,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99763814342234558</v>
+        <v>0.47098328249800492</v>
       </c>
       <c r="B58" s="2">
         <v>195</v>
@@ -3300,10 +3300,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90589762123838424</v>
+        <v>4.4131847340487029E-2</v>
       </c>
       <c r="B59" s="2">
         <v>85</v>
@@ -3321,10 +3321,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60908560118131405</v>
+        <v>0.76480815654896761</v>
       </c>
       <c r="B60" s="2">
         <v>91</v>
@@ -3342,10 +3342,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8182661854235056</v>
+        <v>0.66831378208621095</v>
       </c>
       <c r="B61" s="2">
         <v>278</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4991521474997358</v>
+        <v>5.3060563855881648E-2</v>
       </c>
       <c r="B62" s="2">
         <v>228</v>
@@ -3384,10 +3384,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51464494231945823</v>
+        <v>0.61279685259673977</v>
       </c>
       <c r="B63" s="2">
         <v>35</v>
@@ -3405,10 +3405,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56936518834180472</v>
+        <v>0.24715377011989859</v>
       </c>
       <c r="B64" s="2">
         <v>70</v>
@@ -3429,10 +3429,10 @@
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32973893969023971</v>
+        <v>0.39561650466751186</v>
       </c>
       <c r="B65" s="2">
         <v>214</v>
@@ -3450,10 +3450,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.25169982998620732</v>
+        <v>0.18663822203180025</v>
       </c>
       <c r="B66" s="2">
         <v>95</v>
@@ -3474,10 +3474,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59961061495124679</v>
+        <v>0.45913519023664828</v>
       </c>
       <c r="B67" s="2">
         <v>210</v>
@@ -3495,10 +3495,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79924511876695237</v>
+        <v>0.96349355191586239</v>
       </c>
       <c r="B68" s="2">
         <v>97</v>
@@ -3516,10 +3516,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59815788678198401</v>
+        <v>0.89091152066477397</v>
       </c>
       <c r="B69" s="2">
         <v>226</v>
@@ -3537,10 +3537,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58359913945391351</v>
+        <v>0.36082979427084028</v>
       </c>
       <c r="B70" s="2">
         <v>178</v>
@@ -3558,10 +3558,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89045607543076544</v>
+        <v>0.50856489761298329</v>
       </c>
       <c r="B71" s="2">
         <v>304</v>
@@ -3582,10 +3582,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21196246317803513</v>
+        <v>0.26626629738272323</v>
       </c>
       <c r="B72" s="2">
         <v>19</v>
@@ -3603,10 +3603,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92196379756979729</v>
+        <v>0.48013378842177534</v>
       </c>
       <c r="B73" s="2">
         <v>151</v>
@@ -3627,10 +3627,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33643720362216267</v>
+        <v>0.56556077593311549</v>
       </c>
       <c r="B74" s="2">
         <v>238</v>
@@ -3648,10 +3648,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62334338217813412</v>
+        <v>0.2728233834752426</v>
       </c>
       <c r="B75" s="2">
         <v>59</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57578020043018696</v>
+        <v>0.14884628906062436</v>
       </c>
       <c r="B76" s="2">
         <v>52</v>
@@ -3693,10 +3693,10 @@
         <v>323</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9614216911733631E-2</v>
+        <v>0.68988594578328466</v>
       </c>
       <c r="B77" s="2">
         <v>263</v>
@@ -3717,10 +3717,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94586432703108347</v>
+        <v>0.1525136871039362</v>
       </c>
       <c r="B78" s="2">
         <v>189</v>
@@ -3738,10 +3738,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50526299835618249</v>
+        <v>0.84182035811797074</v>
       </c>
       <c r="B79" s="2">
         <v>13</v>
@@ -3759,10 +3759,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87279571599164141</v>
+        <v>0.64169377418584739</v>
       </c>
       <c r="B80" s="2">
         <v>211</v>
@@ -3780,10 +3780,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27488273883129466</v>
+        <v>8.6942289713478504E-2</v>
       </c>
       <c r="B81" s="2">
         <v>191</v>
@@ -3801,10 +3801,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4780810356771763E-2</v>
+        <v>0.635540221691693</v>
       </c>
       <c r="B82" s="2">
         <v>138</v>
@@ -3825,10 +3825,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39105510528731546</v>
+        <v>0.48598163841603315</v>
       </c>
       <c r="B83" s="2">
         <v>172</v>
@@ -3852,10 +3852,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25766157293545033</v>
+        <v>8.478345847965485E-2</v>
       </c>
       <c r="B84" s="2">
         <v>27</v>
@@ -3876,10 +3876,10 @@
         <v>333</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23792775475552141</v>
+        <v>0.64339075099005805</v>
       </c>
       <c r="B85" s="2">
         <v>63</v>
@@ -3900,10 +3900,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68379693430226018</v>
+        <v>0.73083428556139884</v>
       </c>
       <c r="B86" s="2">
         <v>236</v>
@@ -3921,10 +3921,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97909367627497246</v>
+        <v>0.73693894461463472</v>
       </c>
       <c r="B87" s="2">
         <v>239</v>
@@ -3942,10 +3942,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6496982760116645E-2</v>
+        <v>9.8204479039687764E-2</v>
       </c>
       <c r="B88" s="2">
         <v>268</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38733978060259611</v>
+        <v>0.65668414029375999</v>
       </c>
       <c r="B89" s="2">
         <v>9</v>
@@ -3984,10 +3984,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65790915135166828</v>
+        <v>0.85061647434385823</v>
       </c>
       <c r="B90" s="2">
         <v>75</v>
@@ -4008,10 +4008,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45959019634744447</v>
+        <v>0.8390289556072017</v>
       </c>
       <c r="B91" s="2">
         <v>188</v>
@@ -4029,10 +4029,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53599115432737177</v>
+        <v>2.1869604177952029E-2</v>
       </c>
       <c r="B92" s="2">
         <v>221</v>
@@ -4050,10 +4050,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30284301210538034</v>
+        <v>0.79426532064745214</v>
       </c>
       <c r="B93" s="2">
         <v>94</v>
@@ -4071,10 +4071,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95439342600202937</v>
+        <v>0.951063108875287</v>
       </c>
       <c r="B94" s="2">
         <v>28</v>
@@ -4095,10 +4095,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50288093754305585</v>
+        <v>0.16546768616659346</v>
       </c>
       <c r="B95" s="2">
         <v>200</v>
@@ -4116,10 +4116,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69567692390085922</v>
+        <v>0.67994424180816171</v>
       </c>
       <c r="B96" s="2">
         <v>26</v>
@@ -4143,10 +4143,10 @@
         <v>333</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48683233702103212</v>
+        <v>0.89838426208201272</v>
       </c>
       <c r="B97" s="2">
         <v>83</v>
@@ -4164,10 +4164,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24207167069613933</v>
+        <v>0.37687754755363023</v>
       </c>
       <c r="B98" s="2">
         <v>259</v>
@@ -4188,10 +4188,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8481106873829476E-2</v>
+        <v>7.6214232779501234E-2</v>
       </c>
       <c r="B99" s="2">
         <v>60</v>
@@ -4209,10 +4209,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50909258756596643</v>
+        <v>0.2986346407194852</v>
       </c>
       <c r="B100" s="2">
         <v>93</v>
@@ -4233,10 +4233,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81093716461803145</v>
+        <v>0.84480636612074755</v>
       </c>
       <c r="B101" s="2">
         <v>135</v>
@@ -4257,10 +4257,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.768326409905567</v>
+        <v>0.29753892457762443</v>
       </c>
       <c r="B102" s="2">
         <v>180</v>
@@ -4281,10 +4281,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76015683549592505</v>
+        <v>0.59436167784554417</v>
       </c>
       <c r="B103" s="2">
         <v>182</v>
@@ -4305,10 +4305,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85044681854808479</v>
+        <v>3.1953391524291996E-3</v>
       </c>
       <c r="B104" s="2">
         <v>154</v>
@@ -4329,10 +4329,10 @@
         <v>332</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93511003356692401</v>
+        <v>0.28080063080931617</v>
       </c>
       <c r="B105" s="2">
         <v>37</v>
@@ -4353,10 +4353,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32985356431408519</v>
+        <v>0.37988223456850556</v>
       </c>
       <c r="B106" s="2">
         <v>273</v>
@@ -4377,10 +4377,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54265603601754531</v>
+        <v>0.55117788848049931</v>
       </c>
       <c r="B107" s="2">
         <v>250</v>
@@ -4398,10 +4398,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4236718804680644E-2</v>
+        <v>0.43099106453440217</v>
       </c>
       <c r="B108" s="2">
         <v>39</v>
@@ -4422,10 +4422,10 @@
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5097575076890171E-2</v>
+        <v>0.56618682797713438</v>
       </c>
       <c r="B109" s="2">
         <v>47</v>
@@ -4443,10 +4443,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48855058183693667</v>
+        <v>0.71625887842445357</v>
       </c>
       <c r="B110" s="2">
         <v>272</v>
@@ -4464,10 +4464,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14286495714631375</v>
+        <v>0.8084865814283938</v>
       </c>
       <c r="B111" s="2">
         <v>297</v>
@@ -4485,10 +4485,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80223970038677239</v>
+        <v>0.71690854290489547</v>
       </c>
       <c r="B112" s="2">
         <v>302</v>
@@ -4506,10 +4506,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80983232597055699</v>
+        <v>0.50619108069126184</v>
       </c>
       <c r="B113" s="2">
         <v>109</v>
@@ -4530,10 +4530,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68754679047084921</v>
+        <v>0.69488471382454386</v>
       </c>
       <c r="B114" s="2">
         <v>96</v>
@@ -4551,10 +4551,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41819111945285525</v>
+        <v>0.39650793702238141</v>
       </c>
       <c r="B115" s="2">
         <v>296</v>
@@ -4575,10 +4575,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88548677753515503</v>
+        <v>0.24426564158834441</v>
       </c>
       <c r="B116" s="2">
         <v>254</v>
@@ -4596,10 +4596,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39013272989895309</v>
+        <v>0.32642099998588392</v>
       </c>
       <c r="B117" s="2">
         <v>54</v>
@@ -4620,10 +4620,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87736258142921297</v>
+        <v>0.20909407127644664</v>
       </c>
       <c r="B118" s="2">
         <v>105</v>
@@ -4641,10 +4641,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19328060807106051</v>
+        <v>0.84299131930009996</v>
       </c>
       <c r="B119" s="2">
         <v>159</v>
@@ -4662,10 +4662,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93658349219057657</v>
+        <v>0.9839286969422969</v>
       </c>
       <c r="B120" s="2">
         <v>101</v>
@@ -4686,10 +4686,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18843348650110658</v>
+        <v>0.93992107185767426</v>
       </c>
       <c r="B121" s="2">
         <v>18</v>
@@ -4707,10 +4707,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85105986417644108</v>
+        <v>0.72817727854830283</v>
       </c>
       <c r="B122" s="2">
         <v>137</v>
@@ -4731,10 +4731,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47285664029980257</v>
+        <v>0.17030526082752939</v>
       </c>
       <c r="B123" s="2">
         <v>55</v>
@@ -4755,10 +4755,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32146639825113166</v>
+        <v>0.7425604409693447</v>
       </c>
       <c r="B124" s="2">
         <v>253</v>
@@ -4776,10 +4776,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4266657206498961E-2</v>
+        <v>0.43917564596872416</v>
       </c>
       <c r="B125" s="2">
         <v>32</v>
@@ -4800,10 +4800,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50386738501124206</v>
+        <v>0.32027382318704922</v>
       </c>
       <c r="B126" s="2">
         <v>215</v>
@@ -4827,10 +4827,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89301442668737763</v>
+        <v>0.39911673297156702</v>
       </c>
       <c r="B127" s="2">
         <v>130</v>
@@ -4854,10 +4854,10 @@
         <v>333</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79468151837346768</v>
+        <v>0.39215138972596386</v>
       </c>
       <c r="B128" s="2">
         <v>112</v>
@@ -4875,10 +4875,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73440246220850747</v>
+        <v>0.89081297965114625</v>
       </c>
       <c r="B129" s="2">
         <v>299</v>
@@ -4896,10 +4896,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.35127634894264992</v>
+        <v>0.1363615647717431</v>
       </c>
       <c r="B130" s="2">
         <v>206</v>
@@ -4920,10 +4920,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33460117241721954</v>
+        <v>0.39628163252482462</v>
       </c>
       <c r="B131" s="2">
         <v>267</v>
@@ -4944,10 +4944,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14194765607880722</v>
+        <v>0.41428236875128421</v>
       </c>
       <c r="B132" s="2">
         <v>65</v>
@@ -4965,10 +4965,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12517471079741826</v>
+        <v>0.68540351430605895</v>
       </c>
       <c r="B133" s="2">
         <v>153</v>
@@ -4986,10 +4986,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.4677401403470891E-2</v>
+        <v>0.73322478694271309</v>
       </c>
       <c r="B134" s="2">
         <v>81</v>
@@ -5007,10 +5007,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41616929250786727</v>
+        <v>0.76607933665380401</v>
       </c>
       <c r="B135" s="2">
         <v>1</v>
@@ -5028,10 +5028,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19339788998967711</v>
+        <v>0.69999294245502575</v>
       </c>
       <c r="B136" s="2">
         <v>131</v>
@@ -5052,10 +5052,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88314795244107291</v>
+        <v>0.86275265687062375</v>
       </c>
       <c r="B137" s="2">
         <v>197</v>
@@ -5076,10 +5076,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25062124776392625</v>
+        <v>6.3973746515039509E-2</v>
       </c>
       <c r="B138" s="2">
         <v>209</v>
@@ -5097,10 +5097,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14743704254447465</v>
+        <v>0.28632278646389586</v>
       </c>
       <c r="B139" s="2">
         <v>57</v>
@@ -5118,10 +5118,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56194215684680615</v>
+        <v>0.25523025376449671</v>
       </c>
       <c r="B140" s="2">
         <v>285</v>
@@ -5139,10 +5139,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47957480448177403</v>
+        <v>0.85392115095517018</v>
       </c>
       <c r="B141" s="2">
         <v>121</v>
@@ -5160,10 +5160,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64740138588675955</v>
+        <v>0.80999457055834601</v>
       </c>
       <c r="B142" s="2">
         <v>235</v>
@@ -5181,10 +5181,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48435931971384183</v>
+        <v>0.99852789847361023</v>
       </c>
       <c r="B143" s="2">
         <v>117</v>
@@ -5208,10 +5208,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85262526309594133</v>
+        <v>0.29461064548693983</v>
       </c>
       <c r="B144" s="2">
         <v>177</v>
@@ -5229,10 +5229,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26358767964500207</v>
+        <v>0.99245608940859165</v>
       </c>
       <c r="B145" s="2">
         <v>160</v>
@@ -5250,10 +5250,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11030576851964224</v>
+        <v>0.51459149378859181</v>
       </c>
       <c r="B146" s="2">
         <v>12</v>
@@ -5271,10 +5271,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11935836144884926</v>
+        <v>0.87396406222425405</v>
       </c>
       <c r="B147" s="2">
         <v>287</v>
@@ -5292,10 +5292,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2633016058010782</v>
+        <v>3.9058429875489353E-2</v>
       </c>
       <c r="B148" s="2">
         <v>29</v>
@@ -5316,10 +5316,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.190229427746195</v>
+        <v>0.69043630715877025</v>
       </c>
       <c r="B149" s="2">
         <v>4</v>
@@ -5337,10 +5337,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47598634997948708</v>
+        <v>4.7148551723721344E-3</v>
       </c>
       <c r="B150" s="2">
         <v>115</v>
@@ -5364,10 +5364,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.2977599910180899E-2</v>
+        <v>0.86723760038225639</v>
       </c>
       <c r="B151" s="2">
         <v>43</v>
@@ -5385,10 +5385,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68525633376659334</v>
+        <v>0.15590110097479581</v>
       </c>
       <c r="B152" s="2">
         <v>41</v>
@@ -5409,10 +5409,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67892553907181186</v>
+        <v>0.90614033725823062</v>
       </c>
       <c r="B153" s="2">
         <v>62</v>
@@ -5430,10 +5430,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19008111130376726</v>
+        <v>0.99654586087686714</v>
       </c>
       <c r="B154" s="2">
         <v>246</v>
@@ -5451,10 +5451,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21831984514720937</v>
+        <v>0.11774849893629957</v>
       </c>
       <c r="B155" s="2">
         <v>283</v>
@@ -5472,10 +5472,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8963360760737924</v>
+        <v>5.5383945401285217E-2</v>
       </c>
       <c r="B156" s="2">
         <v>155</v>
@@ -5496,10 +5496,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9298413996365793</v>
+        <v>0.93476706358583139</v>
       </c>
       <c r="B157" s="2">
         <v>128</v>
@@ -5520,10 +5520,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93731023029521521</v>
+        <v>0.96983389003667064</v>
       </c>
       <c r="B158" s="2">
         <v>61</v>
@@ -5547,10 +5547,10 @@
         <v>321</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1428953550645512</v>
+        <v>0.29004301165335089</v>
       </c>
       <c r="B159" s="2">
         <v>248</v>
@@ -5571,10 +5571,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31509775316209498</v>
+        <v>0.33992116371080228</v>
       </c>
       <c r="B160" s="2">
         <v>42</v>
@@ -5592,10 +5592,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10547901388122272</v>
+        <v>0.91675868636287361</v>
       </c>
       <c r="B161" s="2">
         <v>199</v>
@@ -5616,10 +5616,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39655761511796417</v>
+        <v>0.76552748824533545</v>
       </c>
       <c r="B162" s="2">
         <v>140</v>
@@ -5643,10 +5643,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45752704437706582</v>
+        <v>0.24016891623098069</v>
       </c>
       <c r="B163" s="2">
         <v>67</v>
@@ -5667,10 +5667,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36570250902669021</v>
+        <v>0.51407255922900519</v>
       </c>
       <c r="B164" s="2">
         <v>139</v>
@@ -5691,10 +5691,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98961859043384637</v>
+        <v>0.99277283773804281</v>
       </c>
       <c r="B165" s="2">
         <v>80</v>
@@ -5715,10 +5715,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38993171146629091</v>
+        <v>0.93846526850693424</v>
       </c>
       <c r="B166" s="2">
         <v>240</v>
@@ -5736,10 +5736,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89200162917066461</v>
+        <v>0.66162619019847557</v>
       </c>
       <c r="B167" s="2">
         <v>72</v>
@@ -5757,10 +5757,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46744026787784154</v>
+        <v>8.9573919416363723E-2</v>
       </c>
       <c r="B168" s="2">
         <v>217</v>
@@ -5778,10 +5778,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71142911328960134</v>
+        <v>0.33277695737943225</v>
       </c>
       <c r="B169" s="2">
         <v>184</v>
@@ -5799,10 +5799,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84950109103391513</v>
+        <v>3.493849639650648E-2</v>
       </c>
       <c r="B170" s="2">
         <v>276</v>
@@ -5820,10 +5820,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8616742724939663E-2</v>
+        <v>0.67481428035873592</v>
       </c>
       <c r="B171" s="2">
         <v>40</v>
@@ -5844,10 +5844,10 @@
         <v>333</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43934116639620202</v>
+        <v>0.79474435869359927</v>
       </c>
       <c r="B172" s="2">
         <v>44</v>
@@ -5865,10 +5865,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21691763637694905</v>
+        <v>0.88418062264558095</v>
       </c>
       <c r="B173" s="2">
         <v>69</v>
@@ -5889,10 +5889,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54754038835606211</v>
+        <v>0.70056478073590611</v>
       </c>
       <c r="B174" s="2">
         <v>169</v>
@@ -5913,10 +5913,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57321007481107356</v>
+        <v>3.0319842699317867E-2</v>
       </c>
       <c r="B175" s="2">
         <v>232</v>
@@ -5934,10 +5934,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28402455107140667</v>
+        <v>0.28653166525771334</v>
       </c>
       <c r="B176" s="2">
         <v>133</v>
@@ -5958,10 +5958,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70592467619965882</v>
+        <v>0.74468479377977659</v>
       </c>
       <c r="B177" s="2">
         <v>141</v>
@@ -5982,10 +5982,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.0144991037408233E-2</v>
+        <v>0.61383822912543806</v>
       </c>
       <c r="B178" s="2">
         <v>242</v>
@@ -6006,10 +6006,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39516348177848193</v>
+        <v>0.74238819564989544</v>
       </c>
       <c r="B179" s="2">
         <v>227</v>
@@ -6030,10 +6030,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54337294853996521</v>
+        <v>0.68812141561316353</v>
       </c>
       <c r="B180" s="2">
         <v>73</v>
@@ -6051,10 +6051,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.628291811119712</v>
+        <v>0.33929758379618147</v>
       </c>
       <c r="B181" s="2">
         <v>219</v>
@@ -6072,10 +6072,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45539995522491317</v>
+        <v>0.24867417669087244</v>
       </c>
       <c r="B182" s="2">
         <v>14</v>
@@ -6093,10 +6093,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94874821139570542</v>
+        <v>0.22202070484355318</v>
       </c>
       <c r="B183" s="2">
         <v>157</v>
@@ -6114,10 +6114,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6813212063633276</v>
+        <v>0.32425288330509006</v>
       </c>
       <c r="B184" s="2">
         <v>92</v>
@@ -6135,10 +6135,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79848462596689063</v>
+        <v>0.99858052998081892</v>
       </c>
       <c r="B185" s="2">
         <v>222</v>
@@ -6162,10 +6162,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59899862141161164</v>
+        <v>0.17869776897611511</v>
       </c>
       <c r="B186" s="2">
         <v>10</v>
@@ -6183,10 +6183,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45728254742646124</v>
+        <v>0.89022768504981131</v>
       </c>
       <c r="B187" s="2">
         <v>17</v>
@@ -6204,10 +6204,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86662479637493361</v>
+        <v>0.73817776663765655</v>
       </c>
       <c r="B188" s="2">
         <v>79</v>
@@ -6228,10 +6228,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12472618980655781</v>
+        <v>0.86536464988124939</v>
       </c>
       <c r="B189" s="2">
         <v>108</v>
@@ -6249,10 +6249,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45961371634740988</v>
+        <v>0.15817707996354602</v>
       </c>
       <c r="B190" s="2">
         <v>146</v>
@@ -6273,10 +6273,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41701828345570824</v>
+        <v>0.48049376117552789</v>
       </c>
       <c r="B191" s="2">
         <v>116</v>
@@ -6297,10 +6297,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59740063970305757</v>
+        <v>0.98674691848139295</v>
       </c>
       <c r="B192" s="2">
         <v>6</v>
@@ -6318,10 +6318,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63476026387549933</v>
+        <v>0.25498298387014351</v>
       </c>
       <c r="B193" s="2">
         <v>260</v>
@@ -6342,10 +6342,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>0.31311619495963106</v>
+        <v>0.59909802750091501</v>
       </c>
       <c r="B194" s="2">
         <v>218</v>
@@ -6366,10 +6366,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7416627400317575E-2</v>
+        <v>0.69308755945021416</v>
       </c>
       <c r="B195" s="2">
         <v>173</v>
@@ -6387,10 +6387,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92296760027630886</v>
+        <v>0.24409089866751754</v>
       </c>
       <c r="B196" s="2">
         <v>282</v>
@@ -6408,10 +6408,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67960073674323429</v>
+        <v>0.24057936450912631</v>
       </c>
       <c r="B197" s="2">
         <v>22</v>
@@ -6429,10 +6429,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68276290874418466</v>
+        <v>0.65321264937121115</v>
       </c>
       <c r="B198" s="2">
         <v>262</v>
@@ -6453,10 +6453,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75491526132173858</v>
+        <v>0.99178892844076516</v>
       </c>
       <c r="B199" s="2">
         <v>21</v>
@@ -6474,10 +6474,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86920158042465834</v>
+        <v>0.80832124762251489</v>
       </c>
       <c r="B200" s="2">
         <v>301</v>
@@ -6495,10 +6495,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41754824377395472</v>
+        <v>0.78892560861030325</v>
       </c>
       <c r="B201" s="2">
         <v>144</v>
@@ -6516,10 +6516,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69807958806207393</v>
+        <v>0.5212227431042129</v>
       </c>
       <c r="B202" s="2">
         <v>15</v>
@@ -6537,10 +6537,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30071387856155463</v>
+        <v>0.90642219988435024</v>
       </c>
       <c r="B203" s="2">
         <v>106</v>
@@ -6558,10 +6558,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18179785446964847</v>
+        <v>0.97581480450705815</v>
       </c>
       <c r="B204" s="2">
         <v>166</v>
@@ -6579,10 +6579,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86932679489295683</v>
+        <v>0.99936054415883857</v>
       </c>
       <c r="B205" s="2">
         <v>84</v>
@@ -6600,10 +6600,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47824115833032754</v>
+        <v>0.11457505249127853</v>
       </c>
       <c r="B206" s="2">
         <v>127</v>
@@ -6624,10 +6624,10 @@
         <v>330</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22482897303515381</v>
+        <v>8.6727305707437807E-2</v>
       </c>
       <c r="B207" s="2">
         <v>277</v>
@@ -6645,10 +6645,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89902976032916282</v>
+        <v>0.95792177232722675</v>
       </c>
       <c r="B208" s="2">
         <v>111</v>
@@ -6669,10 +6669,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33612525943028393</v>
+        <v>0.52912458378542859</v>
       </c>
       <c r="B209" s="2">
         <v>104</v>
@@ -6690,10 +6690,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82982550766089258</v>
+        <v>0.19416324243533722</v>
       </c>
       <c r="B210" s="2">
         <v>216</v>
@@ -6714,10 +6714,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7751319320359338E-2</v>
+        <v>0.46498600385688416</v>
       </c>
       <c r="B211" s="2">
         <v>34</v>
@@ -6738,10 +6738,10 @@
         <v>330</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46602595043449746</v>
+        <v>0.75958463960435951</v>
       </c>
       <c r="B212" s="2">
         <v>168</v>
@@ -6762,10 +6762,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28671787697148676</v>
+        <v>0.33948690228751432</v>
       </c>
       <c r="B213" s="2">
         <v>225</v>
@@ -6786,10 +6786,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27385806316427297</v>
+        <v>0.52819056049277613</v>
       </c>
       <c r="B214" s="2">
         <v>257</v>
@@ -6810,10 +6810,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57766343227381911</v>
+        <v>0.96002970697142465</v>
       </c>
       <c r="B215" s="2">
         <v>3</v>
@@ -6831,10 +6831,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76869792739729192</v>
+        <v>0.37247239755612327</v>
       </c>
       <c r="B216" s="2">
         <v>249</v>
@@ -6855,10 +6855,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55444313014350077</v>
+        <v>0.85353164519905433</v>
       </c>
       <c r="B217" s="2">
         <v>148</v>
@@ -6876,10 +6876,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6342140323935942</v>
+        <v>0.35390963957252997</v>
       </c>
       <c r="B218" s="2">
         <v>274</v>
@@ -6897,10 +6897,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73944751233213624</v>
+        <v>0.29246248951855369</v>
       </c>
       <c r="B219" s="2">
         <v>275</v>
@@ -6918,10 +6918,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16627942761184844</v>
+        <v>0.87167404723850161</v>
       </c>
       <c r="B220" s="2">
         <v>86</v>
@@ -6939,10 +6939,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42369038287205651</v>
+        <v>0.18476542782013639</v>
       </c>
       <c r="B221" s="2">
         <v>143</v>
@@ -6960,10 +6960,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8954689254985917E-2</v>
+        <v>0.1330883870209788</v>
       </c>
       <c r="B222" s="2">
         <v>30</v>
@@ -6987,10 +6987,10 @@
         <v>330</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9.391589091145669E-2</v>
+        <v>0.55563363253877884</v>
       </c>
       <c r="B223" s="2">
         <v>252</v>
@@ -7011,10 +7011,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61632041835054774</v>
+        <v>2.0296076210875924E-2</v>
       </c>
       <c r="B224" s="2">
         <v>7</v>
@@ -7032,10 +7032,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67901499298059431</v>
+        <v>6.9403909895843885E-2</v>
       </c>
       <c r="B225" s="2">
         <v>247</v>
@@ -7056,10 +7056,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31541746857392639</v>
+        <v>0.71857116742227489</v>
       </c>
       <c r="B226" s="2">
         <v>102</v>
@@ -7080,10 +7080,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75733205457518482</v>
+        <v>0.39974002823646948</v>
       </c>
       <c r="B227" s="2">
         <v>284</v>
@@ -7101,10 +7101,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62613175944625188</v>
+        <v>0.95814210167131109</v>
       </c>
       <c r="B228" s="2">
         <v>123</v>
@@ -7125,10 +7125,10 @@
         <v>335</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98123524156175013</v>
+        <v>0.78741586638586281</v>
       </c>
       <c r="B229" s="2">
         <v>113</v>
@@ -7149,10 +7149,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29644078165526222</v>
+        <v>0.62362123510367817</v>
       </c>
       <c r="B230" s="2">
         <v>88</v>
@@ -7173,10 +7173,10 @@
         <v>333</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16113776513953137</v>
+        <v>0.85548711930861221</v>
       </c>
       <c r="B231" s="2">
         <v>125</v>
@@ -7197,10 +7197,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49928416880173898</v>
+        <v>0.243204907907136</v>
       </c>
       <c r="B232" s="2">
         <v>223</v>
@@ -7221,10 +7221,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13644110612473104</v>
+        <v>0.4556083189839244</v>
       </c>
       <c r="B233" s="2">
         <v>124</v>
@@ -7245,10 +7245,10 @@
         <v>335</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63185577236456347</v>
+        <v>0.81306922025128192</v>
       </c>
       <c r="B234" s="2">
         <v>33</v>
@@ -7269,10 +7269,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90806608000270117</v>
+        <v>0.99472209747322904</v>
       </c>
       <c r="B235" s="2">
         <v>100</v>
@@ -7290,10 +7290,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46226659422258665</v>
+        <v>0.12307395514471409</v>
       </c>
       <c r="B236" s="2">
         <v>231</v>
@@ -7314,10 +7314,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32202219448514868</v>
+        <v>4.1384705918865339E-2</v>
       </c>
       <c r="B237" s="2">
         <v>89</v>
@@ -7335,10 +7335,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21935879098018862</v>
+        <v>0.46417007282819522</v>
       </c>
       <c r="B238" s="2">
         <v>161</v>
@@ -7359,10 +7359,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10331649950132826</v>
+        <v>0.94842589038046132</v>
       </c>
       <c r="B239" s="2">
         <v>265</v>
@@ -7383,10 +7383,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31164984452126088</v>
+        <v>0.1460345609988507</v>
       </c>
       <c r="B240" s="2">
         <v>271</v>
@@ -7407,10 +7407,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73873679643850898</v>
+        <v>0.91688994379592048</v>
       </c>
       <c r="B241" s="2">
         <v>25</v>
@@ -7428,10 +7428,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53026565687358218</v>
+        <v>0.77026513525813967</v>
       </c>
       <c r="B242" s="2">
         <v>68</v>
@@ -7461,10 +7461,10 @@
         <v>334</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98657682992064011</v>
+        <v>0.79324578432865733</v>
       </c>
       <c r="B243" s="2">
         <v>71</v>
@@ -7482,10 +7482,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42801389391699762</v>
+        <v>0.4148973043151758</v>
       </c>
       <c r="B244" s="2">
         <v>270</v>
@@ -7506,10 +7506,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90948889515103848</v>
+        <v>0.72987034310128085</v>
       </c>
       <c r="B245" s="2">
         <v>126</v>
@@ -7530,10 +7530,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62122454157819651</v>
+        <v>0.27615275222835856</v>
       </c>
       <c r="B246" s="2">
         <v>279</v>
@@ -7551,10 +7551,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30132825098799643</v>
+        <v>0.9722108431019959</v>
       </c>
       <c r="B247" s="2">
         <v>205</v>
@@ -7575,10 +7575,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53504413667979822</v>
+        <v>0.51484694958665034</v>
       </c>
       <c r="B248" s="2">
         <v>258</v>
@@ -7599,10 +7599,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72289245575364147</v>
+        <v>0.52760868739374822</v>
       </c>
       <c r="B249" s="2">
         <v>78</v>
@@ -7623,10 +7623,10 @@
         <v>333</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39170930118270297</v>
+        <v>0.71312272409143795</v>
       </c>
       <c r="B250" s="2">
         <v>298</v>
@@ -7644,10 +7644,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80313774935386639</v>
+        <v>0.42107486448527154</v>
       </c>
       <c r="B251" s="2">
         <v>51</v>
@@ -7668,10 +7668,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71717814377871547</v>
+        <v>0.18519336125328734</v>
       </c>
       <c r="B252" s="2">
         <v>174</v>
@@ -7692,10 +7692,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49144076547684856</v>
+        <v>0.10318324729203421</v>
       </c>
       <c r="B253" s="2">
         <v>201</v>
@@ -7713,10 +7713,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7286329140882053E-3</v>
+        <v>0.9377477340093151</v>
       </c>
       <c r="B254" s="2">
         <v>45</v>
@@ -7737,10 +7737,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40920269772742057</v>
+        <v>0.38115247785707151</v>
       </c>
       <c r="B255" s="2">
         <v>193</v>
@@ -7758,10 +7758,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66930693662628415</v>
+        <v>9.7530740716950115E-2</v>
       </c>
       <c r="B256" s="2">
         <v>58</v>
@@ -7782,10 +7782,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43621836582307061</v>
+        <v>0.939444592677253</v>
       </c>
       <c r="B257" s="2">
         <v>198</v>
@@ -7803,10 +7803,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <f t="shared" ref="A258:A305" ca="1" si="4">RAND()</f>
-        <v>0.11556557009164858</v>
+        <v>0.37095660529631103</v>
       </c>
       <c r="B258" s="2">
         <v>208</v>
@@ -7824,10 +7824,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71235982767068395</v>
+        <v>0.42241814141387846</v>
       </c>
       <c r="B259" s="2">
         <v>118</v>
@@ -7845,10 +7845,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44006680620474026</v>
+        <v>9.1138572772471393E-2</v>
       </c>
       <c r="B260" s="2">
         <v>36</v>
@@ -7866,10 +7866,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77068224389854834</v>
+        <v>0.24415085960816274</v>
       </c>
       <c r="B261" s="2">
         <v>187</v>
@@ -7887,10 +7887,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.78202935847512645</v>
+        <v>0.39898154646158712</v>
       </c>
       <c r="B262" s="2">
         <v>207</v>
@@ -7911,10 +7911,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.87332012557479832</v>
+        <v>0.91404369424432586</v>
       </c>
       <c r="B263" s="2">
         <v>269</v>
@@ -7935,10 +7935,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99039338786344044</v>
+        <v>0.38908902110773269</v>
       </c>
       <c r="B264" s="2">
         <v>82</v>
@@ -7956,10 +7956,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9892307331458654</v>
+        <v>0.48998892807834238</v>
       </c>
       <c r="B265" s="2">
         <v>289</v>
@@ -7977,10 +7977,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83953693893233539</v>
+        <v>0.18383051344728074</v>
       </c>
       <c r="B266" s="2">
         <v>266</v>
@@ -8001,10 +8001,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.92572251107075754</v>
+        <v>0.83590600402754123</v>
       </c>
       <c r="B267" s="2">
         <v>147</v>
@@ -8025,10 +8025,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.6080277918612107</v>
+        <v>0.9927451528602913</v>
       </c>
       <c r="B268" s="2">
         <v>288</v>
@@ -8046,10 +8046,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.66963779684484004</v>
+        <v>0.76018199777949313</v>
       </c>
       <c r="B269" s="2">
         <v>204</v>
@@ -8070,10 +8070,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.72256461983808873</v>
+        <v>0.87124386749769589</v>
       </c>
       <c r="B270" s="2">
         <v>50</v>
@@ -8091,10 +8091,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.76983285067327434</v>
+        <v>0.94866163254086533</v>
       </c>
       <c r="B271" s="2">
         <v>220</v>
@@ -8112,10 +8112,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3838136927075988</v>
+        <v>0.71899050344519333</v>
       </c>
       <c r="B272" s="2">
         <v>213</v>
@@ -8136,10 +8136,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23801464185301124</v>
+        <v>0.19027342220001442</v>
       </c>
       <c r="B273" s="2">
         <v>261</v>
@@ -8160,10 +8160,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.97343682884932858</v>
+        <v>0.90231031869768774</v>
       </c>
       <c r="B274" s="2">
         <v>74</v>
@@ -8184,10 +8184,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.92781818681117967</v>
+        <v>0.47546336330548522</v>
       </c>
       <c r="B275" s="2">
         <v>233</v>
@@ -8205,10 +8205,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86562163283962734</v>
+        <v>0.32461435819894235</v>
       </c>
       <c r="B276" s="2">
         <v>8</v>
@@ -8226,10 +8226,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63673625486759144</v>
+        <v>0.62796440589318114</v>
       </c>
       <c r="B277" s="2">
         <v>202</v>
@@ -8247,10 +8247,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.66685639988824408</v>
+        <v>0.78775189448837724</v>
       </c>
       <c r="B278" s="2">
         <v>245</v>
@@ -8271,10 +8271,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35504640608827431</v>
+        <v>0.16213065559367168</v>
       </c>
       <c r="B279" s="2">
         <v>291</v>
@@ -8292,10 +8292,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.58012289300930808</v>
+        <v>0.15749470122040776</v>
       </c>
       <c r="B280" s="2">
         <v>212</v>
@@ -8316,10 +8316,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.69856141838976626</v>
+        <v>0.81865994220062421</v>
       </c>
       <c r="B281" s="2">
         <v>132</v>
@@ -8340,10 +8340,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12019305919603684</v>
+        <v>0.2650079335466442</v>
       </c>
       <c r="B282" s="2">
         <v>295</v>
@@ -8364,10 +8364,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.96273617328861194</v>
+        <v>0.617444771433724</v>
       </c>
       <c r="B283" s="2">
         <v>20</v>
@@ -8385,10 +8385,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5626587368908923</v>
+        <v>0.3968426804804035</v>
       </c>
       <c r="B284" s="2">
         <v>294</v>
@@ -8409,10 +8409,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81228895477350405</v>
+        <v>7.4616198307562831E-2</v>
       </c>
       <c r="B285" s="2">
         <v>145</v>
@@ -8433,10 +8433,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54771294337901488</v>
+        <v>0.7969556064527088</v>
       </c>
       <c r="B286" s="2">
         <v>56</v>
@@ -8457,10 +8457,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1359501732223054</v>
+        <v>0.40169824816547639</v>
       </c>
       <c r="B287" s="2">
         <v>64</v>
@@ -8478,10 +8478,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27874112088456016</v>
+        <v>0.66566536182005287</v>
       </c>
       <c r="B288" s="2">
         <v>24</v>
@@ -8502,10 +8502,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11750146462761391</v>
+        <v>0.93935154686321676</v>
       </c>
       <c r="B289" s="2">
         <v>230</v>
@@ -8526,10 +8526,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.4292028738815925E-2</v>
+        <v>0.38577208907475102</v>
       </c>
       <c r="B290" s="2">
         <v>99</v>
@@ -8550,10 +8550,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30216328201219489</v>
+        <v>0.26586412832038964</v>
       </c>
       <c r="B291" s="2">
         <v>224</v>
@@ -8574,10 +8574,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22202269922487861</v>
+        <v>0.70630088788514034</v>
       </c>
       <c r="B292" s="2">
         <v>293</v>
@@ -8595,10 +8595,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46191584069200764</v>
+        <v>0.87263041054460888</v>
       </c>
       <c r="B293" s="2">
         <v>31</v>
@@ -8616,10 +8616,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71710137283615261</v>
+        <v>0.25644250866087603</v>
       </c>
       <c r="B294" s="2">
         <v>46</v>
@@ -8637,10 +8637,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.48847371678865337</v>
+        <v>0.23305157837879487</v>
       </c>
       <c r="B295" s="2">
         <v>98</v>
@@ -8658,10 +8658,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.95274874758133643</v>
+        <v>0.68929631506458544</v>
       </c>
       <c r="B296" s="2">
         <v>281</v>
@@ -8679,10 +8679,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19766920462442894</v>
+        <v>1.0412505483559098E-2</v>
       </c>
       <c r="B297" s="2">
         <v>16</v>
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81039063772394615</v>
+        <v>0.24255831457228016</v>
       </c>
       <c r="B298" s="2">
         <v>186</v>
@@ -8721,10 +8721,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.61413194099076085</v>
+        <v>4.7859515760865223E-2</v>
       </c>
       <c r="B299" s="2">
         <v>110</v>
@@ -8748,10 +8748,10 @@
         <v>322</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.96621376856870345</v>
+        <v>0.37399547203937367</v>
       </c>
       <c r="B300" s="2">
         <v>149</v>
@@ -8769,10 +8769,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.91907718949581974</v>
+        <v>0.51062809007420773</v>
       </c>
       <c r="B301" s="2">
         <v>90</v>
@@ -8790,10 +8790,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.61263151387300108</v>
+        <v>0.11132711588144939</v>
       </c>
       <c r="B302" s="2">
         <v>114</v>
@@ -8814,10 +8814,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53544755053293047</v>
+        <v>0.14112212833437621</v>
       </c>
       <c r="B303" s="2">
         <v>292</v>
@@ -8838,10 +8838,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12560277827389665</v>
+        <v>0.67996323724169228</v>
       </c>
       <c r="B304" s="2">
         <v>170</v>
@@ -8862,10 +8862,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71149297182882543</v>
+        <v>0.59993650787801966</v>
       </c>
       <c r="B305" s="2">
         <v>38</v>
@@ -8903,16 +8903,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>321</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>322</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>323</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>324</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>325</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>327</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>330</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>333</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>335</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>329</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>331</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>328</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>332</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>334</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>326</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>330</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>333</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>335</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>329</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>331</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>328</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>332</v>
       </c>
@@ -9154,7 +9154,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>334</v>
       </c>
@@ -9188,9 +9188,9 @@
       <selection activeCell="E311" sqref="E311"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>336</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>blackcompany!B2</f>
         <v>5</v>
@@ -9278,7 +9278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>blackcompany!B3</f>
         <v>179</v>
@@ -9328,7 +9328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>blackcompany!B4</f>
         <v>256</v>
@@ -9378,7 +9378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>blackcompany!B5</f>
         <v>165</v>
@@ -9428,7 +9428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>blackcompany!B6</f>
         <v>194</v>
@@ -9478,7 +9478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>blackcompany!B7</f>
         <v>192</v>
@@ -9528,7 +9528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>blackcompany!B8</f>
         <v>229</v>
@@ -9578,7 +9578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>blackcompany!B9</f>
         <v>175</v>
@@ -9628,7 +9628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>blackcompany!B10</f>
         <v>23</v>
@@ -9678,7 +9678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>blackcompany!B11</f>
         <v>87</v>
@@ -9728,7 +9728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>blackcompany!B12</f>
         <v>190</v>
@@ -9778,7 +9778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>blackcompany!B13</f>
         <v>234</v>
@@ -9828,7 +9828,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>blackcompany!B14</f>
         <v>136</v>
@@ -9878,7 +9878,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>blackcompany!B15</f>
         <v>77</v>
@@ -9928,7 +9928,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>blackcompany!B16</f>
         <v>286</v>
@@ -9978,7 +9978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>blackcompany!B17</f>
         <v>244</v>
@@ -10028,7 +10028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>blackcompany!B18</f>
         <v>49</v>
@@ -10078,7 +10078,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>blackcompany!B19</f>
         <v>196</v>
@@ -10128,7 +10128,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>blackcompany!B20</f>
         <v>2</v>
@@ -10178,7 +10178,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>blackcompany!B21</f>
         <v>119</v>
@@ -10228,7 +10228,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>blackcompany!B22</f>
         <v>162</v>
@@ -10278,7 +10278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>blackcompany!B23</f>
         <v>185</v>
@@ -10328,7 +10328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>blackcompany!B24</f>
         <v>181</v>
@@ -10378,7 +10378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>blackcompany!B25</f>
         <v>176</v>
@@ -10428,7 +10428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>blackcompany!B26</f>
         <v>237</v>
@@ -10478,7 +10478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>blackcompany!B27</f>
         <v>134</v>
@@ -10528,7 +10528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <f>blackcompany!B28</f>
         <v>300</v>
@@ -10578,7 +10578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <f>blackcompany!B29</f>
         <v>122</v>
@@ -10628,7 +10628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <f>blackcompany!B30</f>
         <v>203</v>
@@ -10678,7 +10678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>blackcompany!B31</f>
         <v>241</v>
@@ -10728,7 +10728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>blackcompany!B32</f>
         <v>142</v>
@@ -10778,7 +10778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <f>blackcompany!B33</f>
         <v>183</v>
@@ -10828,7 +10828,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <f>blackcompany!B34</f>
         <v>48</v>
@@ -10878,7 +10878,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>blackcompany!B35</f>
         <v>107</v>
@@ -10928,7 +10928,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <f>blackcompany!B36</f>
         <v>163</v>
@@ -10978,7 +10978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <f>blackcompany!B37</f>
         <v>303</v>
@@ -11028,7 +11028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <f>blackcompany!B38</f>
         <v>255</v>
@@ -11078,7 +11078,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>blackcompany!B39</f>
         <v>156</v>
@@ -11128,7 +11128,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <f>blackcompany!B40</f>
         <v>280</v>
@@ -11178,7 +11178,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <f>blackcompany!B41</f>
         <v>66</v>
@@ -11228,7 +11228,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <f>blackcompany!B42</f>
         <v>164</v>
@@ -11278,7 +11278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <f>blackcompany!B43</f>
         <v>167</v>
@@ -11328,7 +11328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <f>blackcompany!B44</f>
         <v>53</v>
@@ -11378,7 +11378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <f>blackcompany!B45</f>
         <v>158</v>
@@ -11428,7 +11428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <f>blackcompany!B46</f>
         <v>251</v>
@@ -11478,7 +11478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <f>blackcompany!B47</f>
         <v>11</v>
@@ -11528,7 +11528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <f>blackcompany!B48</f>
         <v>171</v>
@@ -11578,7 +11578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <f>blackcompany!B49</f>
         <v>152</v>
@@ -11628,7 +11628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <f>blackcompany!B50</f>
         <v>290</v>
@@ -11678,7 +11678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <f>blackcompany!B51</f>
         <v>129</v>
@@ -11728,7 +11728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <f>blackcompany!B52</f>
         <v>243</v>
@@ -11778,7 +11778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <f>blackcompany!B53</f>
         <v>150</v>
@@ -11828,7 +11828,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <f>blackcompany!B54</f>
         <v>103</v>
@@ -11878,7 +11878,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <f>blackcompany!B55</f>
         <v>76</v>
@@ -11928,7 +11928,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <f>blackcompany!B56</f>
         <v>120</v>
@@ -11978,7 +11978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <f>blackcompany!B57</f>
         <v>264</v>
@@ -12028,7 +12028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <f>blackcompany!B58</f>
         <v>195</v>
@@ -12078,7 +12078,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <f>blackcompany!B59</f>
         <v>85</v>
@@ -12128,7 +12128,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <f>blackcompany!B60</f>
         <v>91</v>
@@ -12178,7 +12178,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <f>blackcompany!B61</f>
         <v>278</v>
@@ -12228,7 +12228,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <f>blackcompany!B62</f>
         <v>228</v>
@@ -12278,7 +12278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <f>blackcompany!B63</f>
         <v>35</v>
@@ -12328,7 +12328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <f>blackcompany!B64</f>
         <v>70</v>
@@ -12378,7 +12378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <f>blackcompany!B65</f>
         <v>214</v>
@@ -12428,7 +12428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <f>blackcompany!B66</f>
         <v>95</v>
@@ -12478,7 +12478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <f>blackcompany!B67</f>
         <v>210</v>
@@ -12528,7 +12528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <f>blackcompany!B68</f>
         <v>97</v>
@@ -12578,7 +12578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <f>blackcompany!B69</f>
         <v>226</v>
@@ -12628,7 +12628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <f>blackcompany!B70</f>
         <v>178</v>
@@ -12678,7 +12678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <f>blackcompany!B71</f>
         <v>304</v>
@@ -12728,7 +12728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <f>blackcompany!B72</f>
         <v>19</v>
@@ -12778,7 +12778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <f>blackcompany!B73</f>
         <v>151</v>
@@ -12828,7 +12828,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <f>blackcompany!B74</f>
         <v>238</v>
@@ -12878,7 +12878,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <f>blackcompany!B75</f>
         <v>59</v>
@@ -12928,7 +12928,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <f>blackcompany!B76</f>
         <v>52</v>
@@ -12978,7 +12978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <f>blackcompany!B77</f>
         <v>263</v>
@@ -13028,7 +13028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <f>blackcompany!B78</f>
         <v>189</v>
@@ -13078,7 +13078,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <f>blackcompany!B79</f>
         <v>13</v>
@@ -13128,7 +13128,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <f>blackcompany!B80</f>
         <v>211</v>
@@ -13178,7 +13178,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <f>blackcompany!B81</f>
         <v>191</v>
@@ -13228,7 +13228,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <f>blackcompany!B82</f>
         <v>138</v>
@@ -13278,7 +13278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <f>blackcompany!B83</f>
         <v>172</v>
@@ -13328,7 +13328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <f>blackcompany!B84</f>
         <v>27</v>
@@ -13378,7 +13378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <f>blackcompany!B85</f>
         <v>63</v>
@@ -13428,7 +13428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <f>blackcompany!B86</f>
         <v>236</v>
@@ -13478,7 +13478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <f>blackcompany!B87</f>
         <v>239</v>
@@ -13528,7 +13528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <f>blackcompany!B88</f>
         <v>268</v>
@@ -13578,7 +13578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <f>blackcompany!B89</f>
         <v>9</v>
@@ -13628,7 +13628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <f>blackcompany!B90</f>
         <v>75</v>
@@ -13678,7 +13678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <f>blackcompany!B91</f>
         <v>188</v>
@@ -13728,7 +13728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <f>blackcompany!B92</f>
         <v>221</v>
@@ -13778,7 +13778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <f>blackcompany!B93</f>
         <v>94</v>
@@ -13828,7 +13828,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <f>blackcompany!B94</f>
         <v>28</v>
@@ -13878,7 +13878,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <f>blackcompany!B95</f>
         <v>200</v>
@@ -13928,7 +13928,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <f>blackcompany!B96</f>
         <v>26</v>
@@ -13978,7 +13978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <f>blackcompany!B97</f>
         <v>83</v>
@@ -14028,7 +14028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <f>blackcompany!B98</f>
         <v>259</v>
@@ -14078,7 +14078,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <f>blackcompany!B99</f>
         <v>60</v>
@@ -14128,7 +14128,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <f>blackcompany!B100</f>
         <v>93</v>
@@ -14178,7 +14178,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <f>blackcompany!B101</f>
         <v>135</v>
@@ -14228,7 +14228,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <f>blackcompany!B102</f>
         <v>180</v>
@@ -14278,7 +14278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
         <f>blackcompany!B103</f>
         <v>182</v>
@@ -14328,7 +14328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <f>blackcompany!B104</f>
         <v>154</v>
@@ -14378,7 +14378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <f>blackcompany!B105</f>
         <v>37</v>
@@ -14428,7 +14428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <f>blackcompany!B106</f>
         <v>273</v>
@@ -14478,7 +14478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
         <f>blackcompany!B107</f>
         <v>250</v>
@@ -14528,7 +14528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
         <f>blackcompany!B108</f>
         <v>39</v>
@@ -14578,7 +14578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
         <f>blackcompany!B109</f>
         <v>47</v>
@@ -14628,7 +14628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
         <f>blackcompany!B110</f>
         <v>272</v>
@@ -14678,7 +14678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
         <f>blackcompany!B111</f>
         <v>297</v>
@@ -14728,7 +14728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
         <f>blackcompany!B112</f>
         <v>302</v>
@@ -14778,7 +14778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
         <f>blackcompany!B113</f>
         <v>109</v>
@@ -14828,7 +14828,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
         <f>blackcompany!B114</f>
         <v>96</v>
@@ -14878,7 +14878,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
         <f>blackcompany!B115</f>
         <v>296</v>
@@ -14928,7 +14928,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
         <f>blackcompany!B116</f>
         <v>254</v>
@@ -14978,7 +14978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117">
         <f>blackcompany!B117</f>
         <v>54</v>
@@ -15028,7 +15028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118">
         <f>blackcompany!B118</f>
         <v>105</v>
@@ -15078,7 +15078,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119">
         <f>blackcompany!B119</f>
         <v>159</v>
@@ -15128,7 +15128,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120">
         <f>blackcompany!B120</f>
         <v>101</v>
@@ -15178,7 +15178,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
         <f>blackcompany!B121</f>
         <v>18</v>
@@ -15228,7 +15228,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122">
         <f>blackcompany!B122</f>
         <v>137</v>
@@ -15278,7 +15278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123">
         <f>blackcompany!B123</f>
         <v>55</v>
@@ -15328,7 +15328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124">
         <f>blackcompany!B124</f>
         <v>253</v>
@@ -15378,7 +15378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125">
         <f>blackcompany!B125</f>
         <v>32</v>
@@ -15428,7 +15428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126">
         <f>blackcompany!B126</f>
         <v>215</v>
@@ -15478,7 +15478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127">
         <f>blackcompany!B127</f>
         <v>130</v>
@@ -15528,7 +15528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128">
         <f>blackcompany!B128</f>
         <v>112</v>
@@ -15578,7 +15578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
         <f>blackcompany!B129</f>
         <v>299</v>
@@ -15628,7 +15628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
         <f>blackcompany!B130</f>
         <v>206</v>
@@ -15678,7 +15678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
         <f>blackcompany!B131</f>
         <v>267</v>
@@ -15728,7 +15728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
         <f>blackcompany!B132</f>
         <v>65</v>
@@ -15778,7 +15778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
         <f>blackcompany!B133</f>
         <v>153</v>
@@ -15828,7 +15828,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
         <f>blackcompany!B134</f>
         <v>81</v>
@@ -15878,7 +15878,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
         <f>blackcompany!B135</f>
         <v>1</v>
@@ -15928,7 +15928,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
         <f>blackcompany!B136</f>
         <v>131</v>
@@ -15978,7 +15978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
         <f>blackcompany!B137</f>
         <v>197</v>
@@ -16028,7 +16028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
         <f>blackcompany!B138</f>
         <v>209</v>
@@ -16078,7 +16078,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
         <f>blackcompany!B139</f>
         <v>57</v>
@@ -16128,7 +16128,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
         <f>blackcompany!B140</f>
         <v>285</v>
@@ -16178,7 +16178,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
         <f>blackcompany!B141</f>
         <v>121</v>
@@ -16228,7 +16228,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
         <f>blackcompany!B142</f>
         <v>235</v>
@@ -16278,7 +16278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
         <f>blackcompany!B143</f>
         <v>117</v>
@@ -16328,7 +16328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
         <f>blackcompany!B144</f>
         <v>177</v>
@@ -16378,7 +16378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145">
         <f>blackcompany!B145</f>
         <v>160</v>
@@ -16428,7 +16428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146">
         <f>blackcompany!B146</f>
         <v>12</v>
@@ -16478,7 +16478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147">
         <f>blackcompany!B147</f>
         <v>287</v>
@@ -16528,7 +16528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148">
         <f>blackcompany!B148</f>
         <v>29</v>
@@ -16578,7 +16578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149">
         <f>blackcompany!B149</f>
         <v>4</v>
@@ -16628,7 +16628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150">
         <f>blackcompany!B150</f>
         <v>115</v>
@@ -16678,7 +16678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151">
         <f>blackcompany!B151</f>
         <v>43</v>
@@ -16728,7 +16728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152">
         <f>blackcompany!B152</f>
         <v>41</v>
@@ -16778,7 +16778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153">
         <f>blackcompany!B153</f>
         <v>62</v>
@@ -16828,7 +16828,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154">
         <f>blackcompany!B154</f>
         <v>246</v>
@@ -16878,7 +16878,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155">
         <f>blackcompany!B155</f>
         <v>283</v>
@@ -16928,7 +16928,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156">
         <f>blackcompany!B156</f>
         <v>155</v>
@@ -16978,7 +16978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157">
         <f>blackcompany!B157</f>
         <v>128</v>
@@ -17028,7 +17028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158">
         <f>blackcompany!B158</f>
         <v>61</v>
@@ -17078,7 +17078,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159">
         <f>blackcompany!B159</f>
         <v>248</v>
@@ -17128,7 +17128,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160">
         <f>blackcompany!B160</f>
         <v>42</v>
@@ -17178,7 +17178,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
         <f>blackcompany!B161</f>
         <v>199</v>
@@ -17228,7 +17228,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
         <f>blackcompany!B162</f>
         <v>140</v>
@@ -17278,7 +17278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
         <f>blackcompany!B163</f>
         <v>67</v>
@@ -17328,7 +17328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
         <f>blackcompany!B164</f>
         <v>139</v>
@@ -17378,7 +17378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
         <f>blackcompany!B165</f>
         <v>80</v>
@@ -17428,7 +17428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
         <f>blackcompany!B166</f>
         <v>240</v>
@@ -17478,7 +17478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
         <f>blackcompany!B167</f>
         <v>72</v>
@@ -17528,7 +17528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
         <f>blackcompany!B168</f>
         <v>217</v>
@@ -17578,7 +17578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
         <f>blackcompany!B169</f>
         <v>184</v>
@@ -17628,7 +17628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
         <f>blackcompany!B170</f>
         <v>276</v>
@@ -17678,7 +17678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
         <f>blackcompany!B171</f>
         <v>40</v>
@@ -17728,7 +17728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
         <f>blackcompany!B172</f>
         <v>44</v>
@@ -17778,7 +17778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
         <f>blackcompany!B173</f>
         <v>69</v>
@@ -17828,7 +17828,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
         <f>blackcompany!B174</f>
         <v>169</v>
@@ -17878,7 +17878,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
         <f>blackcompany!B175</f>
         <v>232</v>
@@ -17928,7 +17928,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
         <f>blackcompany!B176</f>
         <v>133</v>
@@ -17978,7 +17978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177">
         <f>blackcompany!B177</f>
         <v>141</v>
@@ -18028,7 +18028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178">
         <f>blackcompany!B178</f>
         <v>242</v>
@@ -18078,7 +18078,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179">
         <f>blackcompany!B179</f>
         <v>227</v>
@@ -18128,7 +18128,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180">
         <f>blackcompany!B180</f>
         <v>73</v>
@@ -18178,7 +18178,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181">
         <f>blackcompany!B181</f>
         <v>219</v>
@@ -18228,7 +18228,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182">
         <f>blackcompany!B182</f>
         <v>14</v>
@@ -18278,7 +18278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183">
         <f>blackcompany!B183</f>
         <v>157</v>
@@ -18328,7 +18328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184">
         <f>blackcompany!B184</f>
         <v>92</v>
@@ -18378,7 +18378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185">
         <f>blackcompany!B185</f>
         <v>222</v>
@@ -18428,7 +18428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186">
         <f>blackcompany!B186</f>
         <v>10</v>
@@ -18478,7 +18478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187">
         <f>blackcompany!B187</f>
         <v>17</v>
@@ -18528,7 +18528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188">
         <f>blackcompany!B188</f>
         <v>79</v>
@@ -18578,7 +18578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189">
         <f>blackcompany!B189</f>
         <v>108</v>
@@ -18628,7 +18628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190">
         <f>blackcompany!B190</f>
         <v>146</v>
@@ -18678,7 +18678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191">
         <f>blackcompany!B191</f>
         <v>116</v>
@@ -18728,7 +18728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192">
         <f>blackcompany!B192</f>
         <v>6</v>
@@ -18778,7 +18778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
         <f>blackcompany!B193</f>
         <v>260</v>
@@ -18828,7 +18828,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
         <f>blackcompany!B194</f>
         <v>218</v>
@@ -18878,7 +18878,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
         <f>blackcompany!B195</f>
         <v>173</v>
@@ -18928,7 +18928,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
         <f>blackcompany!B196</f>
         <v>282</v>
@@ -18978,7 +18978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
         <f>blackcompany!B197</f>
         <v>22</v>
@@ -19028,7 +19028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
         <f>blackcompany!B198</f>
         <v>262</v>
@@ -19078,7 +19078,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
         <f>blackcompany!B199</f>
         <v>21</v>
@@ -19128,7 +19128,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
         <f>blackcompany!B200</f>
         <v>301</v>
@@ -19178,7 +19178,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
         <f>blackcompany!B201</f>
         <v>144</v>
@@ -19228,7 +19228,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202">
         <f>blackcompany!B202</f>
         <v>15</v>
@@ -19278,7 +19278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
         <f>blackcompany!B203</f>
         <v>106</v>
@@ -19328,7 +19328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
         <f>blackcompany!B204</f>
         <v>166</v>
@@ -19378,7 +19378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
         <f>blackcompany!B205</f>
         <v>84</v>
@@ -19428,7 +19428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
         <f>blackcompany!B206</f>
         <v>127</v>
@@ -19478,7 +19478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207">
         <f>blackcompany!B207</f>
         <v>277</v>
@@ -19528,7 +19528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208">
         <f>blackcompany!B208</f>
         <v>111</v>
@@ -19578,7 +19578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209">
         <f>blackcompany!B209</f>
         <v>104</v>
@@ -19628,7 +19628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210">
         <f>blackcompany!B210</f>
         <v>216</v>
@@ -19678,7 +19678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211">
         <f>blackcompany!B211</f>
         <v>34</v>
@@ -19728,7 +19728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212">
         <f>blackcompany!B212</f>
         <v>168</v>
@@ -19778,7 +19778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213">
         <f>blackcompany!B213</f>
         <v>225</v>
@@ -19828,7 +19828,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214">
         <f>blackcompany!B214</f>
         <v>257</v>
@@ -19878,7 +19878,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215">
         <f>blackcompany!B215</f>
         <v>3</v>
@@ -19928,7 +19928,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216">
         <f>blackcompany!B216</f>
         <v>249</v>
@@ -19978,7 +19978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217">
         <f>blackcompany!B217</f>
         <v>148</v>
@@ -20028,7 +20028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218">
         <f>blackcompany!B218</f>
         <v>274</v>
@@ -20078,7 +20078,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219">
         <f>blackcompany!B219</f>
         <v>275</v>
@@ -20128,7 +20128,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220">
         <f>blackcompany!B220</f>
         <v>86</v>
@@ -20178,7 +20178,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221">
         <f>blackcompany!B221</f>
         <v>143</v>
@@ -20228,7 +20228,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222">
         <f>blackcompany!B222</f>
         <v>30</v>
@@ -20278,7 +20278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223">
         <f>blackcompany!B223</f>
         <v>252</v>
@@ -20328,7 +20328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224">
         <f>blackcompany!B224</f>
         <v>7</v>
@@ -20378,7 +20378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225">
         <f>blackcompany!B225</f>
         <v>247</v>
@@ -20428,7 +20428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226">
         <f>blackcompany!B226</f>
         <v>102</v>
@@ -20478,7 +20478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227">
         <f>blackcompany!B227</f>
         <v>284</v>
@@ -20528,7 +20528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228">
         <f>blackcompany!B228</f>
         <v>123</v>
@@ -20578,7 +20578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229">
         <f>blackcompany!B229</f>
         <v>113</v>
@@ -20628,7 +20628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230">
         <f>blackcompany!B230</f>
         <v>88</v>
@@ -20678,7 +20678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231">
         <f>blackcompany!B231</f>
         <v>125</v>
@@ -20728,7 +20728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232">
         <f>blackcompany!B232</f>
         <v>223</v>
@@ -20778,7 +20778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233">
         <f>blackcompany!B233</f>
         <v>124</v>
@@ -20828,7 +20828,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234">
         <f>blackcompany!B234</f>
         <v>33</v>
@@ -20878,7 +20878,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235">
         <f>blackcompany!B235</f>
         <v>100</v>
@@ -20928,7 +20928,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236">
         <f>blackcompany!B236</f>
         <v>231</v>
@@ -20978,7 +20978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237">
         <f>blackcompany!B237</f>
         <v>89</v>
@@ -21028,7 +21028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238">
         <f>blackcompany!B238</f>
         <v>161</v>
@@ -21078,7 +21078,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239">
         <f>blackcompany!B239</f>
         <v>265</v>
@@ -21128,7 +21128,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240">
         <f>blackcompany!B240</f>
         <v>271</v>
@@ -21178,7 +21178,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241">
         <f>blackcompany!B241</f>
         <v>25</v>
@@ -21228,7 +21228,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242">
         <f>blackcompany!B242</f>
         <v>68</v>
@@ -21278,7 +21278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243">
         <f>blackcompany!B243</f>
         <v>71</v>
@@ -21328,7 +21328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244">
         <f>blackcompany!B244</f>
         <v>270</v>
@@ -21378,7 +21378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245">
         <f>blackcompany!B245</f>
         <v>126</v>
@@ -21428,7 +21428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246">
         <f>blackcompany!B246</f>
         <v>279</v>
@@ -21478,7 +21478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247">
         <f>blackcompany!B247</f>
         <v>205</v>
@@ -21528,7 +21528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248">
         <f>blackcompany!B248</f>
         <v>258</v>
@@ -21578,7 +21578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249">
         <f>blackcompany!B249</f>
         <v>78</v>
@@ -21628,7 +21628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250">
         <f>blackcompany!B250</f>
         <v>298</v>
@@ -21678,7 +21678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251">
         <f>blackcompany!B251</f>
         <v>51</v>
@@ -21728,7 +21728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252">
         <f>blackcompany!B252</f>
         <v>174</v>
@@ -21778,7 +21778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253">
         <f>blackcompany!B253</f>
         <v>201</v>
@@ -21828,7 +21828,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254">
         <f>blackcompany!B254</f>
         <v>45</v>
@@ -21878,7 +21878,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255">
         <f>blackcompany!B255</f>
         <v>193</v>
@@ -21928,7 +21928,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256">
         <f>blackcompany!B256</f>
         <v>58</v>
@@ -21978,7 +21978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257">
         <f>blackcompany!B257</f>
         <v>198</v>
@@ -22028,7 +22028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258">
         <f>blackcompany!B258</f>
         <v>208</v>
@@ -22078,7 +22078,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259">
         <f>blackcompany!B259</f>
         <v>118</v>
@@ -22128,7 +22128,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260">
         <f>blackcompany!B260</f>
         <v>36</v>
@@ -22178,7 +22178,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261">
         <f>blackcompany!B261</f>
         <v>187</v>
@@ -22228,7 +22228,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262">
         <f>blackcompany!B262</f>
         <v>207</v>
@@ -22278,7 +22278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263">
         <f>blackcompany!B263</f>
         <v>269</v>
@@ -22328,7 +22328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264">
         <f>blackcompany!B264</f>
         <v>82</v>
@@ -22378,7 +22378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265">
         <f>blackcompany!B265</f>
         <v>289</v>
@@ -22428,7 +22428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266">
         <f>blackcompany!B266</f>
         <v>266</v>
@@ -22478,7 +22478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267">
         <f>blackcompany!B267</f>
         <v>147</v>
@@ -22528,7 +22528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268">
         <f>blackcompany!B268</f>
         <v>288</v>
@@ -22578,7 +22578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269">
         <f>blackcompany!B269</f>
         <v>204</v>
@@ -22628,7 +22628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270">
         <f>blackcompany!B270</f>
         <v>50</v>
@@ -22678,7 +22678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271">
         <f>blackcompany!B271</f>
         <v>220</v>
@@ -22728,7 +22728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272">
         <f>blackcompany!B272</f>
         <v>213</v>
@@ -22778,7 +22778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273">
         <f>blackcompany!B273</f>
         <v>261</v>
@@ -22828,7 +22828,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274">
         <f>blackcompany!B274</f>
         <v>74</v>
@@ -22878,7 +22878,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275">
         <f>blackcompany!B275</f>
         <v>233</v>
@@ -22928,7 +22928,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276">
         <f>blackcompany!B276</f>
         <v>8</v>
@@ -22978,7 +22978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277">
         <f>blackcompany!B277</f>
         <v>202</v>
@@ -23028,7 +23028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278">
         <f>blackcompany!B278</f>
         <v>245</v>
@@ -23078,7 +23078,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279">
         <f>blackcompany!B279</f>
         <v>291</v>
@@ -23128,7 +23128,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280">
         <f>blackcompany!B280</f>
         <v>212</v>
@@ -23178,7 +23178,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281">
         <f>blackcompany!B281</f>
         <v>132</v>
@@ -23228,7 +23228,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282">
         <f>blackcompany!B282</f>
         <v>295</v>
@@ -23278,7 +23278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283">
         <f>blackcompany!B283</f>
         <v>20</v>
@@ -23328,7 +23328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284">
         <f>blackcompany!B284</f>
         <v>294</v>
@@ -23378,7 +23378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285">
         <f>blackcompany!B285</f>
         <v>145</v>
@@ -23428,7 +23428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286">
         <f>blackcompany!B286</f>
         <v>56</v>
@@ -23478,7 +23478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287">
         <f>blackcompany!B287</f>
         <v>64</v>
@@ -23528,7 +23528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288">
         <f>blackcompany!B288</f>
         <v>24</v>
@@ -23578,7 +23578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289">
         <f>blackcompany!B289</f>
         <v>230</v>
@@ -23628,7 +23628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290">
         <f>blackcompany!B290</f>
         <v>99</v>
@@ -23678,7 +23678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291">
         <f>blackcompany!B291</f>
         <v>224</v>
@@ -23728,7 +23728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292">
         <f>blackcompany!B292</f>
         <v>293</v>
@@ -23778,7 +23778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293">
         <f>blackcompany!B293</f>
         <v>31</v>
@@ -23828,7 +23828,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294">
         <f>blackcompany!B294</f>
         <v>46</v>
@@ -23878,7 +23878,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295">
         <f>blackcompany!B295</f>
         <v>98</v>
@@ -23928,7 +23928,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296">
         <f>blackcompany!B296</f>
         <v>281</v>
@@ -23978,7 +23978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297">
         <f>blackcompany!B297</f>
         <v>16</v>
@@ -24028,7 +24028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298">
         <f>blackcompany!B298</f>
         <v>186</v>
@@ -24078,7 +24078,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299">
         <f>blackcompany!B299</f>
         <v>110</v>
@@ -24128,7 +24128,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300">
         <f>blackcompany!B300</f>
         <v>149</v>
@@ -24178,7 +24178,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301">
         <f>blackcompany!B301</f>
         <v>90</v>
@@ -24228,7 +24228,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302">
         <f>blackcompany!B302</f>
         <v>114</v>
@@ -24278,7 +24278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303">
         <f>blackcompany!B303</f>
         <v>292</v>
@@ -24328,7 +24328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304">
         <f>blackcompany!B304</f>
         <v>170</v>
@@ -24378,7 +24378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305">
         <f>blackcompany!B305</f>
         <v>38</v>
@@ -24441,9 +24441,9 @@
       <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="e">
         <v>#N/A</v>
       </c>
@@ -24485,7 +24485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="e">
         <v>#N/A</v>
       </c>
@@ -24527,7 +24527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>999</v>
       </c>
@@ -24573,7 +24573,7 @@
         <v>0.57471264367816088</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -24615,7 +24615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>999</v>
       </c>
@@ -24657,7 +24657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>24</v>
       </c>
@@ -24699,7 +24699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="e">
         <v>#N/A</v>
       </c>
@@ -24741,7 +24741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>999</v>
       </c>
@@ -24783,7 +24783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="e">
         <v>#N/A</v>
       </c>
@@ -24825,7 +24825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>24</v>
       </c>
@@ -24867,7 +24867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="e">
         <v>#N/A</v>
       </c>
@@ -24909,7 +24909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>999</v>
       </c>
@@ -24951,7 +24951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1002</v>
       </c>
@@ -24990,7 +24990,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>999</v>
       </c>
@@ -25036,7 +25036,7 @@
         <v>0.40229885057471265</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="e">
         <v>#N/A</v>
       </c>
@@ -25071,7 +25071,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="e">
         <v>#N/A</v>
       </c>
@@ -25106,7 +25106,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1003</v>
       </c>
@@ -25141,7 +25141,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1002</v>
       </c>
@@ -25176,7 +25176,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1004</v>
       </c>
@@ -25211,7 +25211,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>999</v>
       </c>
@@ -25246,7 +25246,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1002</v>
       </c>
@@ -25281,7 +25281,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="e">
         <v>#N/A</v>
       </c>
@@ -25316,7 +25316,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1002</v>
       </c>
@@ -25351,7 +25351,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1005</v>
       </c>
@@ -25386,7 +25386,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1002</v>
       </c>
@@ -25421,7 +25421,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="e">
         <v>#N/A</v>
       </c>
@@ -25456,7 +25456,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="e">
         <v>#N/A</v>
       </c>
@@ -25491,7 +25491,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1008</v>
       </c>
@@ -25526,7 +25526,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="e">
         <v>#N/A</v>
       </c>
@@ -25561,7 +25561,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1002</v>
       </c>
@@ -25596,7 +25596,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>999</v>
       </c>
@@ -25631,7 +25631,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="e">
         <v>#N/A</v>
       </c>
@@ -25666,7 +25666,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>999</v>
       </c>
@@ -25701,7 +25701,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="e">
         <v>#N/A</v>
       </c>
@@ -25736,7 +25736,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="e">
         <v>#N/A</v>
       </c>
@@ -25771,7 +25771,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>999</v>
       </c>
@@ -25806,7 +25806,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>999</v>
       </c>
@@ -25841,7 +25841,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="e">
         <v>#N/A</v>
       </c>
@@ -25876,7 +25876,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="e">
         <v>#N/A</v>
       </c>
@@ -25911,7 +25911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>999</v>
       </c>
@@ -25946,7 +25946,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>999</v>
       </c>
@@ -25981,7 +25981,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>999</v>
       </c>
@@ -26016,7 +26016,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="e">
         <v>#N/A</v>
       </c>
@@ -26051,7 +26051,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>999</v>
       </c>
@@ -26086,7 +26086,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="e">
         <v>#N/A</v>
       </c>
@@ -26121,7 +26121,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="e">
         <v>#N/A</v>
       </c>
@@ -26156,7 +26156,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>999</v>
       </c>
@@ -26191,7 +26191,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1002</v>
       </c>
@@ -26226,7 +26226,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="e">
         <v>#N/A</v>
       </c>
@@ -26261,7 +26261,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>999</v>
       </c>
@@ -26296,7 +26296,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="e">
         <v>#N/A</v>
       </c>
@@ -26331,7 +26331,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1002</v>
       </c>
@@ -26366,7 +26366,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="e">
         <v>#N/A</v>
       </c>
@@ -26401,7 +26401,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>999</v>
       </c>
@@ -26436,7 +26436,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="e">
         <v>#N/A</v>
       </c>
@@ -26471,7 +26471,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>999</v>
       </c>
@@ -26506,7 +26506,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1002</v>
       </c>
@@ -26541,7 +26541,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="e">
         <v>#N/A</v>
       </c>
@@ -26576,7 +26576,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="e">
         <v>#N/A</v>
       </c>
@@ -26611,7 +26611,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="e">
         <v>#N/A</v>
       </c>
@@ -26646,7 +26646,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="e">
         <v>#N/A</v>
       </c>
@@ -26681,7 +26681,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="e">
         <v>#N/A</v>
       </c>
@@ -26716,7 +26716,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1006</v>
       </c>
@@ -26751,7 +26751,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="e">
         <v>#N/A</v>
       </c>
@@ -26786,7 +26786,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>999</v>
       </c>
@@ -26821,7 +26821,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="e">
         <v>#N/A</v>
       </c>
@@ -26856,7 +26856,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="e">
         <v>#N/A</v>
       </c>
@@ -26891,7 +26891,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="e">
         <v>#N/A</v>
       </c>
@@ -26926,7 +26926,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="e">
         <v>#N/A</v>
       </c>
@@ -26961,7 +26961,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>999</v>
       </c>
@@ -26996,7 +26996,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="e">
         <v>#N/A</v>
       </c>
@@ -27031,7 +27031,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1002</v>
       </c>
@@ -27066,7 +27066,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="e">
         <v>#N/A</v>
       </c>
@@ -27101,7 +27101,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="e">
         <v>#N/A</v>
       </c>
@@ -27136,7 +27136,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>22</v>
       </c>
@@ -27171,7 +27171,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>999</v>
       </c>
@@ -27206,7 +27206,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="e">
         <v>#N/A</v>
       </c>
@@ -27241,7 +27241,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="e">
         <v>#N/A</v>
       </c>
@@ -27276,7 +27276,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="e">
         <v>#N/A</v>
       </c>
@@ -27311,7 +27311,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="e">
         <v>#N/A</v>
       </c>
@@ -27346,7 +27346,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1001</v>
       </c>
@@ -27381,7 +27381,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>999</v>
       </c>
@@ -27416,7 +27416,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1006</v>
       </c>
@@ -27451,7 +27451,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>999</v>
       </c>
@@ -27486,7 +27486,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="e">
         <v>#N/A</v>
       </c>
@@ -27521,7 +27521,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="e">
         <v>#N/A</v>
       </c>
@@ -27556,7 +27556,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="e">
         <v>#N/A</v>
       </c>
@@ -27591,7 +27591,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="e">
         <v>#N/A</v>
       </c>
@@ -27626,7 +27626,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>999</v>
       </c>
@@ -27661,7 +27661,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="e">
         <v>#N/A</v>
       </c>
@@ -27696,7 +27696,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="e">
         <v>#N/A</v>
       </c>
@@ -27731,7 +27731,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="e">
         <v>#N/A</v>
       </c>
@@ -27766,7 +27766,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>999</v>
       </c>
@@ -27801,7 +27801,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="e">
         <v>#N/A</v>
       </c>
@@ -27836,7 +27836,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>999</v>
       </c>
@@ -27871,7 +27871,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="e">
         <v>#N/A</v>
       </c>
@@ -27906,7 +27906,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>999</v>
       </c>
@@ -27941,7 +27941,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="e">
         <v>#N/A</v>
       </c>
@@ -27976,7 +27976,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>999</v>
       </c>
@@ -28011,7 +28011,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1002</v>
       </c>
@@ -28046,7 +28046,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1002</v>
       </c>
@@ -28081,7 +28081,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1002</v>
       </c>
@@ -28116,7 +28116,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1005</v>
       </c>
@@ -28151,7 +28151,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>999</v>
       </c>
@@ -28186,7 +28186,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1002</v>
       </c>
@@ -28221,7 +28221,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="e">
         <v>#N/A</v>
       </c>
@@ -28256,7 +28256,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1006</v>
       </c>
@@ -28291,7 +28291,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="e">
         <v>#N/A</v>
       </c>
@@ -28326,7 +28326,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="e">
         <v>#N/A</v>
       </c>
@@ -28361,7 +28361,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="e">
         <v>#N/A</v>
       </c>
@@ -28396,7 +28396,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="e">
         <v>#N/A</v>
       </c>
@@ -28431,7 +28431,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>999</v>
       </c>
@@ -28466,7 +28466,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="e">
         <v>#N/A</v>
       </c>
@@ -28501,7 +28501,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>999</v>
       </c>
@@ -28536,7 +28536,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="e">
         <v>#N/A</v>
       </c>
@@ -28571,7 +28571,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>999</v>
       </c>
@@ -28606,7 +28606,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="e">
         <v>#N/A</v>
       </c>
@@ -28641,7 +28641,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="e">
         <v>#N/A</v>
       </c>
@@ -28676,7 +28676,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>999</v>
       </c>
@@ -28711,7 +28711,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="e">
         <v>#N/A</v>
       </c>
@@ -28746,7 +28746,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>999</v>
       </c>
@@ -28781,7 +28781,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>999</v>
       </c>
@@ -28816,7 +28816,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="e">
         <v>#N/A</v>
       </c>
@@ -28851,7 +28851,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>999</v>
       </c>
@@ -28886,7 +28886,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1001</v>
       </c>
@@ -28921,7 +28921,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>999</v>
       </c>
@@ -28956,7 +28956,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="e">
         <v>#N/A</v>
       </c>
@@ -28991,7 +28991,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="e">
         <v>#N/A</v>
       </c>
@@ -29026,7 +29026,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1001</v>
       </c>
@@ -29061,7 +29061,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>999</v>
       </c>
@@ -29096,7 +29096,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="e">
         <v>#N/A</v>
       </c>
@@ -29131,7 +29131,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="e">
         <v>#N/A</v>
       </c>
@@ -29166,7 +29166,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="e">
         <v>#N/A</v>
       </c>
@@ -29201,7 +29201,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="e">
         <v>#N/A</v>
       </c>
@@ -29236,7 +29236,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>999</v>
       </c>
@@ -29271,7 +29271,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>999</v>
       </c>
@@ -29306,7 +29306,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="e">
         <v>#N/A</v>
       </c>
@@ -29341,7 +29341,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="e">
         <v>#N/A</v>
       </c>
@@ -29376,7 +29376,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="e">
         <v>#N/A</v>
       </c>
@@ -29411,7 +29411,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="e">
         <v>#N/A</v>
       </c>
@@ -29446,7 +29446,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="e">
         <v>#N/A</v>
       </c>
@@ -29481,7 +29481,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>999</v>
       </c>
@@ -29516,7 +29516,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="e">
         <v>#N/A</v>
       </c>
@@ -29551,7 +29551,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="e">
         <v>#N/A</v>
       </c>
@@ -29586,7 +29586,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="e">
         <v>#N/A</v>
       </c>
@@ -29621,7 +29621,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="e">
         <v>#N/A</v>
       </c>
@@ -29656,7 +29656,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>999</v>
       </c>
@@ -29691,7 +29691,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="e">
         <v>#N/A</v>
       </c>
@@ -29726,7 +29726,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>999</v>
       </c>
@@ -29761,7 +29761,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="e">
         <v>#N/A</v>
       </c>
@@ -29796,7 +29796,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>999</v>
       </c>
@@ -29831,7 +29831,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="e">
         <v>#N/A</v>
       </c>
@@ -29866,7 +29866,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="e">
         <v>#N/A</v>
       </c>
@@ -29901,7 +29901,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="e">
         <v>#N/A</v>
       </c>
@@ -29933,7 +29933,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1002</v>
       </c>
@@ -29965,7 +29965,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>999</v>
       </c>
@@ -29997,7 +29997,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1007</v>
       </c>
@@ -30032,7 +30032,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>999</v>
       </c>
@@ -30067,7 +30067,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="e">
         <v>#N/A</v>
       </c>
@@ -30102,7 +30102,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>999</v>
       </c>
@@ -30137,7 +30137,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>999</v>
       </c>
@@ -30172,7 +30172,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>999</v>
       </c>
@@ -30207,7 +30207,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1001</v>
       </c>
@@ -30242,7 +30242,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>999</v>
       </c>
@@ -30277,7 +30277,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="e">
         <v>#N/A</v>
       </c>
@@ -30312,7 +30312,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="e">
         <v>#N/A</v>
       </c>
@@ -30347,7 +30347,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="e">
         <v>#N/A</v>
       </c>
@@ -30382,7 +30382,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="e">
         <v>#N/A</v>
       </c>
@@ -30417,7 +30417,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="e">
         <v>#N/A</v>
       </c>
@@ -30452,7 +30452,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1006</v>
       </c>
@@ -30487,7 +30487,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="e">
         <v>#N/A</v>
       </c>
@@ -30522,7 +30522,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>999</v>
       </c>
@@ -30557,7 +30557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>999</v>
       </c>
@@ -30592,7 +30592,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="e">
         <v>#N/A</v>
       </c>
@@ -30627,7 +30627,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>999</v>
       </c>
@@ -30662,7 +30662,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1001</v>
       </c>
@@ -30697,7 +30697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1002</v>
       </c>
@@ -30732,7 +30732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1001</v>
       </c>
@@ -30764,7 +30764,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="e">
         <v>#N/A</v>
       </c>
@@ -30796,7 +30796,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="e">
         <v>#N/A</v>
       </c>
@@ -30828,7 +30828,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="e">
         <v>#N/A</v>
       </c>
@@ -30860,7 +30860,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="e">
         <v>#N/A</v>
       </c>
@@ -30892,7 +30892,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="e">
         <v>#N/A</v>
       </c>
@@ -30924,7 +30924,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1001</v>
       </c>
@@ -30956,7 +30956,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="e">
         <v>#N/A</v>
       </c>
@@ -30988,7 +30988,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="e">
         <v>#N/A</v>
       </c>
@@ -31020,7 +31020,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>999</v>
       </c>
@@ -31052,7 +31052,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="e">
         <v>#N/A</v>
       </c>
@@ -31084,7 +31084,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1002</v>
       </c>
@@ -31116,7 +31116,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>999</v>
       </c>
@@ -31148,7 +31148,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="e">
         <v>#N/A</v>
       </c>
@@ -31180,7 +31180,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1002</v>
       </c>
@@ -31212,7 +31212,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>999</v>
       </c>
@@ -31244,7 +31244,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" t="e">
         <v>#N/A</v>
       </c>
@@ -31276,7 +31276,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" t="e">
         <v>#N/A</v>
       </c>
@@ -31308,7 +31308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" t="e">
         <v>#N/A</v>
       </c>
@@ -31340,7 +31340,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>999</v>
       </c>
@@ -31372,7 +31372,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" t="e">
         <v>#N/A</v>
       </c>
@@ -31404,7 +31404,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" t="e">
         <v>#N/A</v>
       </c>
@@ -31436,7 +31436,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" t="e">
         <v>#N/A</v>
       </c>
@@ -31468,7 +31468,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" t="e">
         <v>#N/A</v>
       </c>
@@ -31500,7 +31500,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" t="e">
         <v>#N/A</v>
       </c>
@@ -31532,7 +31532,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" t="e">
         <v>#N/A</v>
       </c>
@@ -31564,7 +31564,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" t="e">
         <v>#N/A</v>
       </c>
@@ -31596,7 +31596,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1003</v>
       </c>
@@ -31628,7 +31628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" t="e">
         <v>#N/A</v>
       </c>
@@ -31660,7 +31660,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>999</v>
       </c>
@@ -31692,7 +31692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" t="e">
         <v>#N/A</v>
       </c>
@@ -31724,7 +31724,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>999</v>
       </c>
@@ -31756,7 +31756,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1003</v>
       </c>
@@ -31788,7 +31788,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1002</v>
       </c>
@@ -31820,7 +31820,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1002</v>
       </c>
@@ -31852,7 +31852,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>999</v>
       </c>
@@ -31884,7 +31884,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" t="e">
         <v>#N/A</v>
       </c>
@@ -31916,7 +31916,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1002</v>
       </c>
@@ -31948,7 +31948,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" t="e">
         <v>#N/A</v>
       </c>
@@ -31980,7 +31980,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" t="e">
         <v>#N/A</v>
       </c>
@@ -32012,7 +32012,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" t="e">
         <v>#N/A</v>
       </c>
@@ -32044,7 +32044,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" t="e">
         <v>#N/A</v>
       </c>
@@ -32076,7 +32076,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" t="e">
         <v>#N/A</v>
       </c>
@@ -32108,7 +32108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>999</v>
       </c>
@@ -32140,7 +32140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1002</v>
       </c>
@@ -32172,7 +32172,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" t="e">
         <v>#N/A</v>
       </c>
@@ -32204,7 +32204,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>999</v>
       </c>
@@ -32236,7 +32236,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>999</v>
       </c>
@@ -32268,7 +32268,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" t="e">
         <v>#N/A</v>
       </c>
@@ -32300,7 +32300,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1008</v>
       </c>
@@ -32332,7 +32332,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>999</v>
       </c>
@@ -32364,7 +32364,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1006</v>
       </c>
@@ -32396,7 +32396,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>999</v>
       </c>
@@ -32428,7 +32428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1002</v>
       </c>
@@ -32460,7 +32460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1008</v>
       </c>
@@ -32492,7 +32492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>999</v>
       </c>
@@ -32524,7 +32524,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="e">
         <v>#N/A</v>
       </c>
@@ -32556,7 +32556,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1001</v>
       </c>
@@ -32588,7 +32588,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="e">
         <v>#N/A</v>
       </c>
@@ -32620,7 +32620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1002</v>
       </c>
@@ -32652,7 +32652,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>999</v>
       </c>
@@ -32684,7 +32684,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1001</v>
       </c>
@@ -32716,7 +32716,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="e">
         <v>#N/A</v>
       </c>
@@ -32748,7 +32748,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>999</v>
       </c>
@@ -32783,7 +32783,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" t="e">
         <v>#N/A</v>
       </c>
@@ -32818,7 +32818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1001</v>
       </c>
@@ -32850,7 +32850,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>999</v>
       </c>
@@ -32882,7 +32882,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" t="e">
         <v>#N/A</v>
       </c>
@@ -32914,7 +32914,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1002</v>
       </c>
@@ -32946,7 +32946,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>999</v>
       </c>
@@ -32978,7 +32978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1006</v>
       </c>
@@ -33010,7 +33010,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" t="e">
         <v>#N/A</v>
       </c>
@@ -33042,7 +33042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>999</v>
       </c>
@@ -33074,7 +33074,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1002</v>
       </c>
@@ -33106,7 +33106,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" t="e">
         <v>#N/A</v>
       </c>
@@ -33138,7 +33138,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>999</v>
       </c>
@@ -33170,7 +33170,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" t="e">
         <v>#N/A</v>
       </c>
@@ -33202,7 +33202,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>999</v>
       </c>
@@ -33234,7 +33234,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" t="e">
         <v>#N/A</v>
       </c>
@@ -33266,7 +33266,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" t="e">
         <v>#N/A</v>
       </c>
@@ -33298,7 +33298,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" t="e">
         <v>#N/A</v>
       </c>
@@ -33330,7 +33330,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" t="e">
         <v>#N/A</v>
       </c>
@@ -33362,7 +33362,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" t="e">
         <v>#N/A</v>
       </c>
@@ -33394,7 +33394,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1001</v>
       </c>
@@ -33426,7 +33426,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1001</v>
       </c>
@@ -33458,7 +33458,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" t="e">
         <v>#N/A</v>
       </c>
@@ -33490,7 +33490,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" t="e">
         <v>#N/A</v>
       </c>
@@ -33522,7 +33522,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>999</v>
       </c>
@@ -33554,7 +33554,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1002</v>
       </c>
@@ -33586,7 +33586,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" t="e">
         <v>#N/A</v>
       </c>
@@ -33618,7 +33618,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1002</v>
       </c>
@@ -33650,7 +33650,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" t="e">
         <v>#N/A</v>
       </c>
@@ -33682,7 +33682,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" t="e">
         <v>#N/A</v>
       </c>
@@ -33714,7 +33714,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>999</v>
       </c>
@@ -33746,7 +33746,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>999</v>
       </c>
@@ -33778,7 +33778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>999</v>
       </c>
@@ -33810,7 +33810,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" t="e">
         <v>#N/A</v>
       </c>
@@ -33842,7 +33842,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" t="e">
         <v>#N/A</v>
       </c>
@@ -33874,7 +33874,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" t="e">
         <v>#N/A</v>
       </c>
@@ -33906,7 +33906,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>999</v>
       </c>
@@ -33938,7 +33938,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" t="e">
         <v>#N/A</v>
       </c>
@@ -33970,7 +33970,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>999</v>
       </c>
@@ -34002,7 +34002,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1002</v>
       </c>
@@ -34034,7 +34034,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1002</v>
       </c>
@@ -34066,7 +34066,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" t="e">
         <v>#N/A</v>
       </c>
@@ -34098,7 +34098,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1002</v>
       </c>
@@ -34130,7 +34130,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>999</v>
       </c>
@@ -34162,7 +34162,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>999</v>
       </c>
@@ -34194,7 +34194,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" t="e">
         <v>#N/A</v>
       </c>
@@ -34226,7 +34226,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>999</v>
       </c>
@@ -34258,7 +34258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1002</v>
       </c>
@@ -34290,7 +34290,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>999</v>
       </c>
@@ -34322,7 +34322,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>999</v>
       </c>
@@ -34354,7 +34354,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" t="e">
         <v>#N/A</v>
       </c>
@@ -34386,7 +34386,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" t="e">
         <v>#N/A</v>
       </c>
@@ -34418,7 +34418,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" t="e">
         <v>#N/A</v>
       </c>
@@ -34450,7 +34450,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" t="e">
         <v>#N/A</v>
       </c>
@@ -34482,7 +34482,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" t="e">
         <v>#N/A</v>
       </c>
@@ -34514,7 +34514,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" t="e">
         <v>#N/A</v>
       </c>
@@ -34546,7 +34546,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" t="e">
         <v>#N/A</v>
       </c>
@@ -34578,7 +34578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>999</v>
       </c>
@@ -34610,7 +34610,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" t="e">
         <v>#N/A</v>
       </c>
@@ -34642,7 +34642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" t="e">
         <v>#N/A</v>
       </c>
@@ -34674,7 +34674,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>999</v>
       </c>
@@ -34706,7 +34706,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1002</v>
       </c>
@@ -34738,7 +34738,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>999</v>
       </c>
@@ -34770,7 +34770,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1006</v>
       </c>
@@ -34802,7 +34802,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="305" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M305">
         <v>1007</v>
       </c>
